--- a/data/entities/Victoria_today_adaptation.xlsx
+++ b/data/entities/Victoria_today_adaptation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bresch/Documents/_GIT/climada_modules/drought_fire/data/entities/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="766" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
@@ -16,10 +21,13 @@
     <sheet name="_discounting_sheet" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="text_for_excel" localSheetId="0">assets!$J$10:$L$217</definedName>
+    <definedName name="text_for_excel" localSheetId="0">assets!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,6 +39,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ein zufriedener Microsoft Office-Anwender</author>
+    <author>A satisfied Microsoft Office user</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
@@ -71,7 +80,57 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0">
+    <comment ref="F1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>the 2-digit peril identifier, e.g. TC for Tropical Cyclone wind, TS for surge, TR for rain, WS for European winter strom, EQ for earthquake. Matches with hazard.peril_ID. If empty, use the damage function irrespective of peril (i.e. the user needs to know which entity to expose to which peril)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>OPTIONAL
+The unit of the intensity, e.g. m/s for wind or MMI for earthquake. Please use SI units wherever possible.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>OPTIONAL
+a free name, only used for annotation. Use only letters,  numbers and spaces, do not start with a letter.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>climada_damagefunction_generate(0:5:120,25,1,0.375,'s-shape','TC',0);</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0">
+    <comment ref="A24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,6 +162,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ein zufriedener Microsoft Office-Anwender</author>
+    <author>A satisfied Microsoft Office user</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -281,6 +341,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">the 2-digit peril identifier, e.g. TC for Tropical Cyclone wind, TS for surge, TR for rain, WS for European winter strom, EQ for earthquake. Just needs to match with hazard.peril_ID. If AA, use the measure  irrespective of peril (i.e. the user needs to know which entity to expose to which peril)
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -346,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="98">
   <si>
     <t>Latitude</t>
   </si>
@@ -673,21 +746,36 @@
   <si>
     <t>Education factor: initial</t>
   </si>
+  <si>
+    <t>peril_ID</t>
+  </si>
+  <si>
+    <t>Intensity_unit</t>
+  </si>
+  <si>
+    <t>bushfire default</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>brightness</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -787,6 +875,22 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -838,7 +942,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -876,12 +980,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -966,18 +1079,14 @@
     <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -999,8 +1108,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1011,42 +1118,49 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="2" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="2" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="58">
-    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Comma 3" xfId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
@@ -1071,14 +1185,13 @@
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="5"/>
     <cellStyle name="Normal 4" xfId="6"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="8"/>
     <cellStyle name="Percent 3" xfId="9"/>
-    <cellStyle name="Prozent" xfId="7" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1161,7 +1274,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1199,8 +1312,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16824644549762999"/>
-          <c:y val="4.3955955510155603E-2"/>
+          <c:x val="0.16824644549763"/>
+          <c:y val="0.0439559555101556"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1218,10 +1331,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4786729857819899E-2"/>
+          <c:x val="0.0947867298578199"/>
           <c:y val="0.241757755305856"/>
-          <c:w val="0.84834123222748803"/>
-          <c:h val="0.43955955510155598"/>
+          <c:w val="0.848341232227488"/>
+          <c:h val="0.439559555101556"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1266,57 +1379,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$2:$B$13</c:f>
+              <c:f>damagefunctions!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$C$2:$C$13</c:f>
+              <c:f>damagefunctions!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01</c:v>
@@ -1350,6 +1466,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,57 +1514,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$2:$B$13</c:f>
+              <c:f>damagefunctions!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$D$2:$D$13</c:f>
+              <c:f>damagefunctions!$D$2:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01</c:v>
@@ -1454,22 +1576,22 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6999999999999995E-2</c:v>
+                  <c:v>0.057</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17700000000000002</c:v>
+                  <c:v>0.177</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.34</c:v>
@@ -1478,6 +1600,9 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1524,90 +1649,96 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$2:$B$13</c:f>
+              <c:f>damagefunctions!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$E$2:$E$13</c:f>
+              <c:f>damagefunctions!$E$2:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.0001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>0.0002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7099999999999997E-3</c:v>
+                  <c:v>0.00171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0000000000000002E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5400000000000008E-2</c:v>
+                  <c:v>0.0354</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4199999999999993E-2</c:v>
+                  <c:v>0.0642</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11200000000000002</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15300000000000002</c:v>
+                  <c:v>0.153</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1622,11 +1753,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43642240"/>
-        <c:axId val="43644800"/>
+        <c:axId val="-427548928"/>
+        <c:axId val="-427537856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43642240"/>
+        <c:axId val="-427548928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,8 +1790,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.45734597156398099"/>
-              <c:y val="0.86813012132557399"/>
+              <c:x val="0.457345971563981"/>
+              <c:y val="0.868130121325574"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1700,16 +1831,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43644800"/>
+        <c:crossAx val="-427537856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43644800"/>
+        <c:axId val="-427537856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1749,7 +1880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43642240"/>
+        <c:crossAx val="-427548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1766,10 +1897,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.40995260663507099"/>
-          <c:y val="4.9450449948925099E-2"/>
-          <c:w val="0.49763033175355398"/>
-          <c:h val="9.89008998978501E-2"/>
+          <c:x val="0.409952606635071"/>
+          <c:y val="0.0494504499489251"/>
+          <c:w val="0.497630331753554"/>
+          <c:h val="0.0989008998978501"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1831,7 +1962,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1840,7 +1971,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1879,7 +2010,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.184834123222749"/>
-          <c:y val="4.9450449948925099E-2"/>
+          <c:y val="0.0494504499489251"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1897,10 +2028,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4786729857819899E-2"/>
+          <c:x val="0.0947867298578199"/>
           <c:y val="0.241757755305856"/>
-          <c:w val="0.84834123222748803"/>
-          <c:h val="0.43955955510155598"/>
+          <c:w val="0.848341232227488"/>
+          <c:h val="0.439559555101556"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1945,54 +2076,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$14:$B$22</c:f>
+              <c:f>damagefunctions!$B$15:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$C$14:$C$22</c:f>
+              <c:f>damagefunctions!$C$15:$C$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.0001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.01</c:v>
@@ -2010,7 +2141,7 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,57 +2187,57 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$14:$B$22</c:f>
+              <c:f>damagefunctions!$B$15:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$D$14:$D$22</c:f>
+              <c:f>damagefunctions!$D$15:$D$23</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0000_);_(* \(#,##0.0000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>0.0025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.06</c:v>
@@ -2115,10 +2246,10 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.175</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22500000000000001</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.25</c:v>
@@ -2155,66 +2286,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$14:$B$22</c:f>
+              <c:f>damagefunctions!$B$15:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>800</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1700</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$E$14:$E$22</c:f>
+              <c:f>damagefunctions!$E$15:$E$23</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0000_);_(* \(#,##0.0000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.5E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0000000000000004E-6</c:v>
+                  <c:v>5.0E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5000000000000001E-4</c:v>
+                  <c:v>0.00025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>0.03125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8750000000000001E-2</c:v>
+                  <c:v>0.07875</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.19125</c:v>
@@ -2235,11 +2366,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43494784"/>
-        <c:axId val="43513344"/>
+        <c:axId val="-427432400"/>
+        <c:axId val="-427424192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43494784"/>
+        <c:axId val="-427432400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,8 +2403,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.45734597156398099"/>
-              <c:y val="0.86813012132557399"/>
+              <c:x val="0.457345971563981"/>
+              <c:y val="0.868130121325574"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2313,16 +2444,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43513344"/>
+        <c:crossAx val="-427424192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43513344"/>
+        <c:axId val="-427424192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2362,7 +2493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43494784"/>
+        <c:crossAx val="-427432400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2380,9 +2511,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.428909952606635"/>
-          <c:y val="6.5933933265233405E-2"/>
-          <c:w val="0.38151658767772501"/>
-          <c:h val="9.89008998978501E-2"/>
+          <c:y val="0.0659339332652334"/>
+          <c:w val="0.381516587677725"/>
+          <c:h val="0.0989008998978501"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2444,7 +2575,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2453,7 +2584,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2492,7 +2623,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.182033201989834"/>
-          <c:y val="4.9180295063093002E-2"/>
+          <c:y val="0.049180295063093"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2510,10 +2641,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.6926769890690698E-2"/>
-          <c:y val="0.24043699808623201"/>
-          <c:w val="0.84870025343312105"/>
-          <c:h val="0.44262265556783698"/>
+          <c:x val="0.0969267698906907"/>
+          <c:y val="0.240436998086232"/>
+          <c:w val="0.848700253433121"/>
+          <c:h val="0.442622655567837"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2558,72 +2689,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$23:$B$31</c:f>
+              <c:f>damagefunctions!$B$24:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$C$23:$C$31</c:f>
+              <c:f>damagefunctions!$C$24:$C$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0422535211267616E-3</c:v>
+                  <c:v>0.00704225352112676</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5087719298245619E-2</c:v>
+                  <c:v>0.0350877192982456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9999999999999992E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23611111111111113</c:v>
+                  <c:v>0.236111111111111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.475</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2669,60 +2806,63 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$23:$B$31</c:f>
+              <c:f>damagefunctions!$B$24:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$D$23:$D$31</c:f>
+              <c:f>damagefunctions!$D$24:$D$33</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0000_);_(* \(#,##0.0000\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7999999999999996E-3</c:v>
+                  <c:v>0.0048</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1000000000000002E-2</c:v>
+                  <c:v>0.041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14199999999999999</c:v>
+                  <c:v>0.142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28499999999999998</c:v>
+                  <c:v>0.285</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.45</c:v>
@@ -2734,6 +2874,9 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -2768,63 +2911,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$23:$B$31</c:f>
+              <c:f>damagefunctions!$B$24:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$E$23:$E$31</c:f>
+              <c:f>damagefunctions!$E$24:$E$33</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0000_);_(* \(#,##0.0000\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>0.045</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.17</c:v>
@@ -2834,6 +2980,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,11 +2997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="44985344"/>
-        <c:axId val="45008000"/>
+        <c:axId val="-427352704"/>
+        <c:axId val="-427344496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44985344"/>
+        <c:axId val="-427352704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2885,8 +3034,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.46099317387035799"/>
-              <c:y val="0.86885187944797604"/>
+              <c:x val="0.460993173870358"/>
+              <c:y val="0.868851879447976"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2926,16 +3075,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45008000"/>
+        <c:crossAx val="-427344496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45008000"/>
+        <c:axId val="-427344496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2975,7 +3124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44985344"/>
+        <c:crossAx val="-427352704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2992,10 +3141,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43262436317064401"/>
-          <c:y val="4.9180295063093002E-2"/>
-          <c:w val="0.38061487688783402"/>
-          <c:h val="9.8360590126185907E-2"/>
+          <c:x val="0.432624363170644"/>
+          <c:y val="0.049180295063093"/>
+          <c:w val="0.380614876887834"/>
+          <c:h val="0.0983605901261859"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3057,7 +3206,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3067,15 +3216,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3099,15 +3248,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3131,15 +3280,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3162,10 +3311,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="text_for_excel" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3490,29 +3635,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M209"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="7" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="7.42578125" style="7" customWidth="1"/>
-    <col min="11" max="12" width="7.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="15" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="7"/>
+    <col min="2" max="2" width="10.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3534,9 +3675,8 @@
       <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>-36.625</v>
       </c>
@@ -3557,14 +3697,11 @@
       <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="44">
         <v>295000000</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="48"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>-36.291699999999999</v>
       </c>
@@ -3585,13 +3722,11 @@
       <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="G3" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>-35.208300000000001</v>
       </c>
@@ -3612,13 +3747,11 @@
       <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="G4" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>-35.375</v>
       </c>
@@ -3639,13 +3772,11 @@
       <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="44">
         <v>597000000</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>-34.625</v>
       </c>
@@ -3666,13 +3797,11 @@
       <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="G6" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>-36.125</v>
       </c>
@@ -3693,13 +3822,11 @@
       <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="G7" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>-35.458300000000001</v>
       </c>
@@ -3720,13 +3847,11 @@
       <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="44">
         <v>85000000</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>-37.625</v>
       </c>
@@ -3747,13 +3872,11 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="44">
         <v>85000000</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -3774,13 +3897,11 @@
       <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="G10" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>-37.041699999999999</v>
       </c>
@@ -3801,13 +3922,11 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="44">
         <v>597000000</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>-36.125</v>
       </c>
@@ -3828,13 +3947,11 @@
       <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="G12" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>-37.625</v>
       </c>
@@ -3855,13 +3972,11 @@
       <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="44">
         <v>179000000</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -3882,13 +3997,11 @@
       <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="44">
         <v>15213000000.000002</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -3909,13 +4022,11 @@
       <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="G15" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>-37.291699999999999</v>
       </c>
@@ -3936,13 +4047,11 @@
       <c r="F16" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="44">
         <v>85000000</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>-37.041699999999999</v>
       </c>
@@ -3963,13 +4072,11 @@
       <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="44">
         <v>85000000</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>-37.625</v>
       </c>
@@ -3990,13 +4097,11 @@
       <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="44">
         <v>5765000000</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -4017,13 +4122,11 @@
       <c r="F19" s="7">
         <v>1</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="44">
         <v>27985000000.000004</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -4044,13 +4147,11 @@
       <c r="F20" s="7">
         <v>1</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="44">
         <v>85000000</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>-37.625</v>
       </c>
@@ -4071,13 +4172,11 @@
       <c r="F21" s="7">
         <v>1</v>
       </c>
-      <c r="G21" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="G21" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -4098,13 +4197,11 @@
       <c r="F22" s="7">
         <v>1</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="44">
         <v>179000000</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>-36.625</v>
       </c>
@@ -4125,13 +4222,11 @@
       <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="44">
         <v>85000000</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -4152,13 +4247,11 @@
       <c r="F24" s="7">
         <v>1</v>
       </c>
-      <c r="G24" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="G24" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>-37.375</v>
       </c>
@@ -4179,13 +4272,11 @@
       <c r="F25" s="7">
         <v>1</v>
       </c>
-      <c r="G25" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="G25" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>-37.291699999999999</v>
       </c>
@@ -4206,13 +4297,11 @@
       <c r="F26" s="7">
         <v>1</v>
       </c>
-      <c r="G26" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="G26" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>-36.041699999999999</v>
       </c>
@@ -4233,13 +4322,11 @@
       <c r="F27" s="7">
         <v>1</v>
       </c>
-      <c r="G27" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="G27" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>-35.625</v>
       </c>
@@ -4260,13 +4347,11 @@
       <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="44">
         <v>1474000000</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -4287,13 +4372,11 @@
       <c r="F29" s="7">
         <v>1</v>
       </c>
-      <c r="G29" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="G29" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>-37.625</v>
       </c>
@@ -4314,13 +4397,11 @@
       <c r="F30" s="7">
         <v>1</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="44">
         <v>85000000</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="1:13">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>-37.041699999999999</v>
       </c>
@@ -4341,13 +4422,11 @@
       <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="44">
         <v>1474000000</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>-36.875</v>
       </c>
@@ -4368,13 +4447,11 @@
       <c r="F32" s="7">
         <v>1</v>
       </c>
-      <c r="G32" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="G32" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>-36.791699999999999</v>
       </c>
@@ -4395,13 +4472,11 @@
       <c r="F33" s="7">
         <v>1</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="44">
         <v>434999999.99999994</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" spans="1:13">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
         <v>-36.708300000000001</v>
       </c>
@@ -4422,13 +4497,11 @@
       <c r="F34" s="7">
         <v>1</v>
       </c>
-      <c r="G34" s="48">
+      <c r="G34" s="44">
         <v>85000000</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>-35.791699999999999</v>
       </c>
@@ -4449,13 +4522,11 @@
       <c r="F35" s="7">
         <v>1</v>
       </c>
-      <c r="G35" s="48">
+      <c r="G35" s="44">
         <v>85000000</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -4476,13 +4547,11 @@
       <c r="F36" s="7">
         <v>1</v>
       </c>
-      <c r="G36" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="G36" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>-37.875</v>
       </c>
@@ -4503,13 +4572,11 @@
       <c r="F37" s="7">
         <v>1</v>
       </c>
-      <c r="G37" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="G37" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -4530,13 +4597,11 @@
       <c r="F38" s="7">
         <v>1</v>
       </c>
-      <c r="G38" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="M38" s="7"/>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="G38" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
         <v>-37.625</v>
       </c>
@@ -4557,13 +4622,11 @@
       <c r="F39" s="7">
         <v>1</v>
       </c>
-      <c r="G39" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="G39" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
         <v>-36.791699999999999</v>
       </c>
@@ -4584,13 +4647,11 @@
       <c r="F40" s="7">
         <v>1</v>
       </c>
-      <c r="G40" s="48">
+      <c r="G40" s="44">
         <v>16927000000</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="M40" s="7"/>
-    </row>
-    <row r="41" spans="1:13">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>-36.708300000000001</v>
       </c>
@@ -4611,13 +4672,11 @@
       <c r="F41" s="7">
         <v>1</v>
       </c>
-      <c r="G41" s="48">
+      <c r="G41" s="44">
         <v>3473000000</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="M41" s="7"/>
-    </row>
-    <row r="42" spans="1:13">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -4638,13 +4697,11 @@
       <c r="F42" s="7">
         <v>1</v>
       </c>
-      <c r="G42" s="48">
+      <c r="G42" s="44">
         <v>179000000</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="M42" s="7"/>
-    </row>
-    <row r="43" spans="1:13">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
         <v>-37.875</v>
       </c>
@@ -4665,13 +4722,11 @@
       <c r="F43" s="7">
         <v>1</v>
       </c>
-      <c r="G43" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="M43" s="7"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="G43" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="7">
         <v>-37.625</v>
       </c>
@@ -4692,13 +4747,11 @@
       <c r="F44" s="7">
         <v>1</v>
       </c>
-      <c r="G44" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H44" s="7"/>
-      <c r="M44" s="7"/>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="G44" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="7">
         <v>-37.208300000000001</v>
       </c>
@@ -4719,13 +4772,11 @@
       <c r="F45" s="7">
         <v>1</v>
       </c>
-      <c r="G45" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H45" s="7"/>
-      <c r="M45" s="7"/>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="G45" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
         <v>-36.791699999999999</v>
       </c>
@@ -4746,13 +4797,11 @@
       <c r="F46" s="7">
         <v>1</v>
       </c>
-      <c r="G46" s="48">
+      <c r="G46" s="44">
         <v>990000000</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="M46" s="7"/>
-    </row>
-    <row r="47" spans="1:13">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
         <v>-36.708300000000001</v>
       </c>
@@ -4773,13 +4822,11 @@
       <c r="F47" s="7">
         <v>1</v>
       </c>
-      <c r="G47" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H47" s="7"/>
-      <c r="M47" s="7"/>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="G47" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
         <v>-35.958300000000001</v>
       </c>
@@ -4800,13 +4847,11 @@
       <c r="F48" s="7">
         <v>1</v>
       </c>
-      <c r="G48" s="48">
+      <c r="G48" s="44">
         <v>85000000</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="M48" s="7"/>
-    </row>
-    <row r="49" spans="1:13">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -4827,13 +4872,11 @@
       <c r="F49" s="7">
         <v>1</v>
       </c>
-      <c r="G49" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H49" s="7"/>
-      <c r="M49" s="7"/>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="G49" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="7">
         <v>-37.875</v>
       </c>
@@ -4854,13 +4897,11 @@
       <c r="F50" s="7">
         <v>1</v>
       </c>
-      <c r="G50" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H50" s="7"/>
-      <c r="M50" s="7"/>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="G50" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -4881,13 +4922,11 @@
       <c r="F51" s="7">
         <v>1</v>
       </c>
-      <c r="G51" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H51" s="7"/>
-      <c r="M51" s="7"/>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="G51" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -4908,13 +4947,11 @@
       <c r="F52" s="7">
         <v>1</v>
       </c>
-      <c r="G52" s="48">
+      <c r="G52" s="44">
         <v>1474000000</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="M52" s="7"/>
-    </row>
-    <row r="53" spans="1:13">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
         <v>-37.625</v>
       </c>
@@ -4935,13 +4972,11 @@
       <c r="F53" s="7">
         <v>1</v>
       </c>
-      <c r="G53" s="48">
+      <c r="G53" s="44">
         <v>990000000</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="M53" s="7"/>
-    </row>
-    <row r="54" spans="1:13">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
         <v>-37.291699999999999</v>
       </c>
@@ -4962,13 +4997,11 @@
       <c r="F54" s="7">
         <v>1</v>
       </c>
-      <c r="G54" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H54" s="7"/>
-      <c r="M54" s="7"/>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="G54" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="7">
         <v>-37.208300000000001</v>
       </c>
@@ -4989,13 +5022,11 @@
       <c r="F55" s="7">
         <v>1</v>
       </c>
-      <c r="G55" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H55" s="7"/>
-      <c r="M55" s="7"/>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="G55" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -5016,13 +5047,11 @@
       <c r="F56" s="7">
         <v>1</v>
       </c>
-      <c r="G56" s="48">
+      <c r="G56" s="44">
         <v>85000000</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="M56" s="7"/>
-    </row>
-    <row r="57" spans="1:13">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="7">
         <v>-37.875</v>
       </c>
@@ -5043,13 +5072,11 @@
       <c r="F57" s="7">
         <v>1</v>
       </c>
-      <c r="G57" s="48">
+      <c r="G57" s="44">
         <v>85000000</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="M57" s="7"/>
-    </row>
-    <row r="58" spans="1:13">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -5070,13 +5097,11 @@
       <c r="F58" s="7">
         <v>1</v>
       </c>
-      <c r="G58" s="48">
+      <c r="G58" s="44">
         <v>295000000</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="M58" s="7"/>
-    </row>
-    <row r="59" spans="1:13">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -5097,13 +5122,11 @@
       <c r="F59" s="7">
         <v>1</v>
       </c>
-      <c r="G59" s="48">
+      <c r="G59" s="44">
         <v>5765000000</v>
       </c>
-      <c r="H59" s="7"/>
-      <c r="M59" s="7"/>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="7">
         <v>-37.625</v>
       </c>
@@ -5124,13 +5147,11 @@
       <c r="F60" s="7">
         <v>1</v>
       </c>
-      <c r="G60" s="48">
+      <c r="G60" s="44">
         <v>85000000</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="M60" s="7"/>
-    </row>
-    <row r="61" spans="1:13">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -5151,13 +5172,11 @@
       <c r="F61" s="7">
         <v>1</v>
       </c>
-      <c r="G61" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H61" s="7"/>
-      <c r="M61" s="7"/>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="G61" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="7">
         <v>-37.375</v>
       </c>
@@ -5178,13 +5197,11 @@
       <c r="F62" s="7">
         <v>1</v>
       </c>
-      <c r="G62" s="48">
+      <c r="G62" s="44">
         <v>990000000</v>
       </c>
-      <c r="H62" s="7"/>
-      <c r="M62" s="7"/>
-    </row>
-    <row r="63" spans="1:13">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -5205,13 +5222,11 @@
       <c r="F63" s="7">
         <v>1</v>
       </c>
-      <c r="G63" s="48">
+      <c r="G63" s="44">
         <v>990000000</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="M63" s="7"/>
-    </row>
-    <row r="64" spans="1:13">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="7">
         <v>-37.875</v>
       </c>
@@ -5232,13 +5247,11 @@
       <c r="F64" s="7">
         <v>1</v>
       </c>
-      <c r="G64" s="48">
+      <c r="G64" s="44">
         <v>14390000000</v>
       </c>
-      <c r="H64" s="7"/>
-      <c r="M64" s="7"/>
-    </row>
-    <row r="65" spans="1:13">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -5259,13 +5272,11 @@
       <c r="F65" s="7">
         <v>1</v>
       </c>
-      <c r="G65" s="48">
+      <c r="G65" s="44">
         <v>295000000</v>
       </c>
-      <c r="H65" s="7"/>
-      <c r="M65" s="7"/>
-    </row>
-    <row r="66" spans="1:13">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -5286,13 +5297,11 @@
       <c r="F66" s="7">
         <v>1</v>
       </c>
-      <c r="G66" s="48">
+      <c r="G66" s="44">
         <v>9931000000</v>
       </c>
-      <c r="H66" s="7"/>
-      <c r="M66" s="7"/>
-    </row>
-    <row r="67" spans="1:13">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="7">
         <v>-37.625</v>
       </c>
@@ -5313,13 +5322,11 @@
       <c r="F67" s="7">
         <v>1</v>
       </c>
-      <c r="G67" s="48">
+      <c r="G67" s="44">
         <v>179000000</v>
       </c>
-      <c r="H67" s="7"/>
-      <c r="M67" s="7"/>
-    </row>
-    <row r="68" spans="1:13">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -5340,13 +5347,11 @@
       <c r="F68" s="7">
         <v>1</v>
       </c>
-      <c r="G68" s="48">
+      <c r="G68" s="44">
         <v>434999999.99999994</v>
       </c>
-      <c r="H68" s="7"/>
-      <c r="M68" s="7"/>
-    </row>
-    <row r="69" spans="1:13">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -5367,13 +5372,11 @@
       <c r="F69" s="7">
         <v>1</v>
       </c>
-      <c r="G69" s="48">
+      <c r="G69" s="44">
         <v>434999999.99999994</v>
       </c>
-      <c r="H69" s="7"/>
-      <c r="M69" s="7"/>
-    </row>
-    <row r="70" spans="1:13">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -5394,13 +5397,11 @@
       <c r="F70" s="7">
         <v>1</v>
       </c>
-      <c r="G70" s="48">
+      <c r="G70" s="44">
         <v>1221000000</v>
       </c>
-      <c r="H70" s="7"/>
-      <c r="M70" s="7"/>
-    </row>
-    <row r="71" spans="1:13">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="7">
         <v>-37.875</v>
       </c>
@@ -5421,13 +5422,11 @@
       <c r="F71" s="7">
         <v>1</v>
       </c>
-      <c r="G71" s="48">
+      <c r="G71" s="44">
         <v>41799000000</v>
       </c>
-      <c r="H71" s="7"/>
-      <c r="M71" s="7"/>
-    </row>
-    <row r="72" spans="1:13">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -5448,13 +5447,11 @@
       <c r="F72" s="7">
         <v>1</v>
       </c>
-      <c r="G72" s="48">
+      <c r="G72" s="44">
         <v>3885000000</v>
       </c>
-      <c r="H72" s="7"/>
-      <c r="M72" s="7"/>
-    </row>
-    <row r="73" spans="1:13">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -5475,13 +5472,11 @@
       <c r="F73" s="7">
         <v>1</v>
       </c>
-      <c r="G73" s="48">
+      <c r="G73" s="44">
         <v>3473000000</v>
       </c>
-      <c r="H73" s="7"/>
-      <c r="M73" s="7"/>
-    </row>
-    <row r="74" spans="1:13">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="7">
         <v>-37.625</v>
       </c>
@@ -5502,13 +5497,11 @@
       <c r="F74" s="7">
         <v>1</v>
       </c>
-      <c r="G74" s="48">
+      <c r="G74" s="44">
         <v>2371000000</v>
       </c>
-      <c r="H74" s="7"/>
-      <c r="M74" s="7"/>
-    </row>
-    <row r="75" spans="1:13">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -5529,13 +5522,11 @@
       <c r="F75" s="7">
         <v>1</v>
       </c>
-      <c r="G75" s="48">
+      <c r="G75" s="44">
         <v>597000000</v>
       </c>
-      <c r="H75" s="7"/>
-      <c r="M75" s="7"/>
-    </row>
-    <row r="76" spans="1:13">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -5556,13 +5547,11 @@
       <c r="F76" s="7">
         <v>1</v>
       </c>
-      <c r="G76" s="48">
+      <c r="G76" s="44">
         <v>295000000</v>
       </c>
-      <c r="H76" s="7"/>
-      <c r="M76" s="7"/>
-    </row>
-    <row r="77" spans="1:13">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="7">
         <v>-37.291699999999999</v>
       </c>
@@ -5583,13 +5572,11 @@
       <c r="F77" s="7">
         <v>1</v>
       </c>
-      <c r="G77" s="48">
+      <c r="G77" s="44">
         <v>85000000</v>
       </c>
-      <c r="H77" s="7"/>
-      <c r="M77" s="7"/>
-    </row>
-    <row r="78" spans="1:13">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="7">
         <v>-36.375</v>
       </c>
@@ -5610,13 +5597,11 @@
       <c r="F78" s="7">
         <v>1</v>
       </c>
-      <c r="G78" s="48">
+      <c r="G78" s="44">
         <v>2371000000</v>
       </c>
-      <c r="H78" s="7"/>
-      <c r="M78" s="7"/>
-    </row>
-    <row r="79" spans="1:13">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="7">
         <v>-36.125</v>
       </c>
@@ -5637,13 +5622,11 @@
       <c r="F79" s="7">
         <v>1</v>
       </c>
-      <c r="G79" s="48">
+      <c r="G79" s="44">
         <v>179000000</v>
       </c>
-      <c r="H79" s="7"/>
-      <c r="M79" s="7"/>
-    </row>
-    <row r="80" spans="1:13">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="7">
         <v>-37.875</v>
       </c>
@@ -5664,13 +5647,11 @@
       <c r="F80" s="7">
         <v>1</v>
       </c>
-      <c r="G80" s="48">
+      <c r="G80" s="44">
         <v>39083000000</v>
       </c>
-      <c r="H80" s="7"/>
-      <c r="M80" s="7"/>
-    </row>
-    <row r="81" spans="1:13">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -5691,13 +5672,11 @@
       <c r="F81" s="7">
         <v>1</v>
       </c>
-      <c r="G81" s="48">
+      <c r="G81" s="44">
         <v>41799000000</v>
       </c>
-      <c r="H81" s="7"/>
-      <c r="M81" s="7"/>
-    </row>
-    <row r="82" spans="1:13">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -5718,13 +5697,11 @@
       <c r="F82" s="7">
         <v>1</v>
       </c>
-      <c r="G82" s="48">
+      <c r="G82" s="44">
         <v>40430000000</v>
       </c>
-      <c r="H82" s="7"/>
-      <c r="M82" s="7"/>
-    </row>
-    <row r="83" spans="1:13">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="7">
         <v>-37.625</v>
       </c>
@@ -5745,13 +5722,11 @@
       <c r="F83" s="7">
         <v>1</v>
       </c>
-      <c r="G83" s="48">
+      <c r="G83" s="44">
         <v>990000000</v>
       </c>
-      <c r="H83" s="7"/>
-      <c r="M83" s="7"/>
-    </row>
-    <row r="84" spans="1:13">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -5772,13 +5747,11 @@
       <c r="F84" s="7">
         <v>1</v>
       </c>
-      <c r="G84" s="48">
+      <c r="G84" s="44">
         <v>85000000</v>
       </c>
-      <c r="H84" s="7"/>
-      <c r="M84" s="7"/>
-    </row>
-    <row r="85" spans="1:13">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -5799,13 +5772,11 @@
       <c r="F85" s="7">
         <v>1</v>
       </c>
-      <c r="G85" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H85" s="7"/>
-      <c r="M85" s="7"/>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="G85" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="7">
         <v>-36.125</v>
       </c>
@@ -5826,13 +5797,11 @@
       <c r="F86" s="7">
         <v>1</v>
       </c>
-      <c r="G86" s="48">
+      <c r="G86" s="44">
         <v>3885000000</v>
       </c>
-      <c r="H86" s="7"/>
-      <c r="M86" s="7"/>
-    </row>
-    <row r="87" spans="1:13">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="7">
         <v>-37.875</v>
       </c>
@@ -5853,13 +5822,11 @@
       <c r="F87" s="7">
         <v>1</v>
       </c>
-      <c r="G87" s="48">
+      <c r="G87" s="44">
         <v>24695999999.999996</v>
       </c>
-      <c r="H87" s="7"/>
-      <c r="M87" s="7"/>
-    </row>
-    <row r="88" spans="1:13">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -5880,13 +5847,11 @@
       <c r="F88" s="7">
         <v>1</v>
       </c>
-      <c r="G88" s="48">
+      <c r="G88" s="44">
         <v>41799000000</v>
       </c>
-      <c r="H88" s="7"/>
-      <c r="M88" s="7"/>
-    </row>
-    <row r="89" spans="1:13">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -5907,13 +5872,11 @@
       <c r="F89" s="7">
         <v>1</v>
       </c>
-      <c r="G89" s="48">
+      <c r="G89" s="44">
         <v>41799000000</v>
       </c>
-      <c r="H89" s="7"/>
-      <c r="M89" s="7"/>
-    </row>
-    <row r="90" spans="1:13">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="7">
         <v>-37.625</v>
       </c>
@@ -5934,13 +5897,11 @@
       <c r="F90" s="7">
         <v>1</v>
       </c>
-      <c r="G90" s="48">
+      <c r="G90" s="44">
         <v>6292000000</v>
       </c>
-      <c r="H90" s="7"/>
-      <c r="M90" s="7"/>
-    </row>
-    <row r="91" spans="1:13">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -5961,13 +5922,11 @@
       <c r="F91" s="7">
         <v>1</v>
       </c>
-      <c r="G91" s="48">
+      <c r="G91" s="44">
         <v>179000000</v>
       </c>
-      <c r="H91" s="7"/>
-      <c r="M91" s="7"/>
-    </row>
-    <row r="92" spans="1:13">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="7">
         <v>-37.291699999999999</v>
       </c>
@@ -5988,13 +5947,11 @@
       <c r="F92" s="7">
         <v>1</v>
       </c>
-      <c r="G92" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H92" s="7"/>
-      <c r="M92" s="7"/>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="G92" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="7">
         <v>-37.125</v>
       </c>
@@ -6015,13 +5972,11 @@
       <c r="F93" s="7">
         <v>1</v>
       </c>
-      <c r="G93" s="48">
+      <c r="G93" s="44">
         <v>85000000</v>
       </c>
-      <c r="H93" s="7"/>
-      <c r="M93" s="7"/>
-    </row>
-    <row r="94" spans="1:13">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="7">
         <v>-34.541699999999999</v>
       </c>
@@ -6042,13 +5997,11 @@
       <c r="F94" s="7">
         <v>1</v>
       </c>
-      <c r="G94" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H94" s="7"/>
-      <c r="M94" s="7"/>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="G94" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -6069,13 +6022,11 @@
       <c r="F95" s="7">
         <v>1</v>
       </c>
-      <c r="G95" s="48">
+      <c r="G95" s="44">
         <v>41799000000</v>
       </c>
-      <c r="H95" s="7"/>
-      <c r="M95" s="7"/>
-    </row>
-    <row r="96" spans="1:13">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -6096,13 +6047,11 @@
       <c r="F96" s="7">
         <v>1</v>
       </c>
-      <c r="G96" s="48">
+      <c r="G96" s="44">
         <v>41799000000</v>
       </c>
-      <c r="H96" s="7"/>
-      <c r="M96" s="7"/>
-    </row>
-    <row r="97" spans="1:13">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="7">
         <v>-37.625</v>
       </c>
@@ -6123,13 +6072,11 @@
       <c r="F97" s="7">
         <v>1</v>
       </c>
-      <c r="G97" s="48">
+      <c r="G97" s="44">
         <v>39083000000</v>
       </c>
-      <c r="H97" s="7"/>
-      <c r="M97" s="7"/>
-    </row>
-    <row r="98" spans="1:13">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -6150,13 +6097,11 @@
       <c r="F98" s="7">
         <v>1</v>
       </c>
-      <c r="G98" s="48">
+      <c r="G98" s="44">
         <v>3083000000</v>
       </c>
-      <c r="H98" s="7"/>
-      <c r="M98" s="7"/>
-    </row>
-    <row r="99" spans="1:13">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -6177,13 +6122,11 @@
       <c r="F99" s="7">
         <v>1</v>
       </c>
-      <c r="G99" s="48">
+      <c r="G99" s="44">
         <v>85000000</v>
       </c>
-      <c r="H99" s="7"/>
-      <c r="M99" s="7"/>
-    </row>
-    <row r="100" spans="1:13">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="7">
         <v>-37.375</v>
       </c>
@@ -6204,13 +6147,11 @@
       <c r="F100" s="7">
         <v>1</v>
       </c>
-      <c r="G100" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H100" s="7"/>
-      <c r="M100" s="7"/>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="G100" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="7">
         <v>-37.291699999999999</v>
       </c>
@@ -6231,13 +6172,11 @@
       <c r="F101" s="7">
         <v>1</v>
       </c>
-      <c r="G101" s="48">
+      <c r="G101" s="44">
         <v>4780000000</v>
       </c>
-      <c r="H101" s="7"/>
-      <c r="M101" s="7"/>
-    </row>
-    <row r="102" spans="1:13">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -6258,13 +6197,11 @@
       <c r="F102" s="7">
         <v>1</v>
       </c>
-      <c r="G102" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H102" s="7"/>
-      <c r="M102" s="7"/>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="G102" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="7">
         <v>-36.291699999999999</v>
       </c>
@@ -6285,13 +6222,11 @@
       <c r="F103" s="7">
         <v>1</v>
       </c>
-      <c r="G103" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H103" s="7"/>
-      <c r="M103" s="7"/>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="G103" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="7">
         <v>-35.541699999999999</v>
       </c>
@@ -6312,13 +6247,11 @@
       <c r="F104" s="7">
         <v>1</v>
       </c>
-      <c r="G104" s="48">
+      <c r="G104" s="44">
         <v>12058000000</v>
       </c>
-      <c r="H104" s="7"/>
-      <c r="M104" s="7"/>
-    </row>
-    <row r="105" spans="1:13">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -6339,13 +6272,11 @@
       <c r="F105" s="7">
         <v>1</v>
       </c>
-      <c r="G105" s="48">
+      <c r="G105" s="44">
         <v>41799000000</v>
       </c>
-      <c r="H105" s="7"/>
-      <c r="M105" s="7"/>
-    </row>
-    <row r="106" spans="1:13">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="7">
         <v>-37.875</v>
       </c>
@@ -6366,13 +6297,11 @@
       <c r="F106" s="7">
         <v>1</v>
       </c>
-      <c r="G106" s="48">
+      <c r="G106" s="44">
         <v>41799000000</v>
       </c>
-      <c r="H106" s="7"/>
-      <c r="M106" s="7"/>
-    </row>
-    <row r="107" spans="1:13">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -6393,13 +6322,11 @@
       <c r="F107" s="7">
         <v>1</v>
       </c>
-      <c r="G107" s="48">
+      <c r="G107" s="44">
         <v>41799000000</v>
       </c>
-      <c r="H107" s="7"/>
-      <c r="M107" s="7"/>
-    </row>
-    <row r="108" spans="1:13">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -6420,13 +6347,11 @@
       <c r="F108" s="7">
         <v>1</v>
       </c>
-      <c r="G108" s="48">
+      <c r="G108" s="44">
         <v>40430000000</v>
       </c>
-      <c r="H108" s="7"/>
-      <c r="M108" s="7"/>
-    </row>
-    <row r="109" spans="1:13">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="7">
         <v>-37.625</v>
       </c>
@@ -6447,13 +6372,11 @@
       <c r="F109" s="7">
         <v>1</v>
       </c>
-      <c r="G109" s="48">
+      <c r="G109" s="44">
         <v>19670000000</v>
       </c>
-      <c r="H109" s="7"/>
-      <c r="M109" s="7"/>
-    </row>
-    <row r="110" spans="1:13">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -6474,13 +6397,11 @@
       <c r="F110" s="7">
         <v>1</v>
       </c>
-      <c r="G110" s="48">
+      <c r="G110" s="44">
         <v>179000000</v>
       </c>
-      <c r="H110" s="7"/>
-      <c r="M110" s="7"/>
-    </row>
-    <row r="111" spans="1:13">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -6501,13 +6422,11 @@
       <c r="F111" s="7">
         <v>1</v>
       </c>
-      <c r="G111" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H111" s="7"/>
-      <c r="M111" s="7"/>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="G111" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="7">
         <v>-37.375</v>
       </c>
@@ -6528,13 +6447,11 @@
       <c r="F112" s="7">
         <v>1</v>
       </c>
-      <c r="G112" s="48">
+      <c r="G112" s="44">
         <v>434999999.99999994</v>
       </c>
-      <c r="H112" s="7"/>
-      <c r="M112" s="7"/>
-    </row>
-    <row r="113" spans="1:13">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="7">
         <v>-37.291699999999999</v>
       </c>
@@ -6555,13 +6472,11 @@
       <c r="F113" s="7">
         <v>1</v>
       </c>
-      <c r="G113" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H113" s="7"/>
-      <c r="M113" s="7"/>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="G113" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="7">
         <v>-37.208300000000001</v>
       </c>
@@ -6582,13 +6497,11 @@
       <c r="F114" s="7">
         <v>1</v>
       </c>
-      <c r="G114" s="48">
+      <c r="G114" s="44">
         <v>597000000</v>
       </c>
-      <c r="H114" s="7"/>
-      <c r="M114" s="7"/>
-    </row>
-    <row r="115" spans="1:13">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="7">
         <v>-36.291699999999999</v>
       </c>
@@ -6609,13 +6522,11 @@
       <c r="F115" s="7">
         <v>1</v>
       </c>
-      <c r="G115" s="48">
+      <c r="G115" s="44">
         <v>597000000</v>
       </c>
-      <c r="H115" s="7"/>
-      <c r="M115" s="7"/>
-    </row>
-    <row r="116" spans="1:13">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -6636,13 +6547,11 @@
       <c r="F116" s="7">
         <v>1</v>
       </c>
-      <c r="G116" s="48">
+      <c r="G116" s="44">
         <v>41799000000</v>
       </c>
-      <c r="H116" s="7"/>
-      <c r="M116" s="7"/>
-    </row>
-    <row r="117" spans="1:13">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" s="7">
         <v>-37.875</v>
       </c>
@@ -6663,13 +6572,11 @@
       <c r="F117" s="7">
         <v>1</v>
       </c>
-      <c r="G117" s="48">
+      <c r="G117" s="44">
         <v>41799000000</v>
       </c>
-      <c r="H117" s="7"/>
-      <c r="M117" s="7"/>
-    </row>
-    <row r="118" spans="1:13">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -6690,13 +6597,11 @@
       <c r="F118" s="7">
         <v>1</v>
       </c>
-      <c r="G118" s="48">
+      <c r="G118" s="44">
         <v>41799000000</v>
       </c>
-      <c r="H118" s="7"/>
-      <c r="M118" s="7"/>
-    </row>
-    <row r="119" spans="1:13">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -6717,13 +6622,11 @@
       <c r="F119" s="7">
         <v>1</v>
       </c>
-      <c r="G119" s="48">
+      <c r="G119" s="44">
         <v>39083000000</v>
       </c>
-      <c r="H119" s="7"/>
-      <c r="M119" s="7"/>
-    </row>
-    <row r="120" spans="1:13">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="7">
         <v>-37.625</v>
       </c>
@@ -6744,13 +6647,11 @@
       <c r="F120" s="7">
         <v>1</v>
       </c>
-      <c r="G120" s="48">
+      <c r="G120" s="44">
         <v>13590000000</v>
       </c>
-      <c r="H120" s="7"/>
-      <c r="M120" s="7"/>
-    </row>
-    <row r="121" spans="1:13">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -6771,13 +6672,11 @@
       <c r="F121" s="7">
         <v>1</v>
       </c>
-      <c r="G121" s="48">
+      <c r="G121" s="44">
         <v>597000000</v>
       </c>
-      <c r="H121" s="7"/>
-      <c r="M121" s="7"/>
-    </row>
-    <row r="122" spans="1:13">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -6798,13 +6697,11 @@
       <c r="F122" s="7">
         <v>1</v>
       </c>
-      <c r="G122" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H122" s="7"/>
-      <c r="M122" s="7"/>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="G122" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="7">
         <v>-37.041699999999999</v>
       </c>
@@ -6825,13 +6722,11 @@
       <c r="F123" s="7">
         <v>1</v>
       </c>
-      <c r="G123" s="48">
+      <c r="G123" s="44">
         <v>2371000000</v>
       </c>
-      <c r="H123" s="7"/>
-      <c r="M123" s="7"/>
-    </row>
-    <row r="124" spans="1:13">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="7">
         <v>-36.791699999999999</v>
       </c>
@@ -6852,13 +6747,11 @@
       <c r="F124" s="7">
         <v>1</v>
       </c>
-      <c r="G124" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H124" s="7"/>
-      <c r="M124" s="7"/>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="G124" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" s="7">
         <v>-36.375</v>
       </c>
@@ -6879,13 +6772,11 @@
       <c r="F125" s="7">
         <v>1</v>
       </c>
-      <c r="G125" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H125" s="7"/>
-      <c r="M125" s="7"/>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="G125" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -6906,13 +6797,11 @@
       <c r="F126" s="7">
         <v>1</v>
       </c>
-      <c r="G126" s="48">
+      <c r="G126" s="44">
         <v>41799000000</v>
       </c>
-      <c r="H126" s="7"/>
-      <c r="M126" s="7"/>
-    </row>
-    <row r="127" spans="1:13">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" s="7">
         <v>-37.875</v>
       </c>
@@ -6933,13 +6822,11 @@
       <c r="F127" s="7">
         <v>1</v>
       </c>
-      <c r="G127" s="48">
+      <c r="G127" s="44">
         <v>41799000000</v>
       </c>
-      <c r="H127" s="7"/>
-      <c r="M127" s="7"/>
-    </row>
-    <row r="128" spans="1:13">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -6960,13 +6847,11 @@
       <c r="F128" s="7">
         <v>1</v>
       </c>
-      <c r="G128" s="48">
+      <c r="G128" s="44">
         <v>33922000000</v>
       </c>
-      <c r="H128" s="7"/>
-      <c r="M128" s="7"/>
-    </row>
-    <row r="129" spans="1:13">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -6987,13 +6872,11 @@
       <c r="F129" s="7">
         <v>1</v>
       </c>
-      <c r="G129" s="48">
+      <c r="G129" s="44">
         <v>3473000000</v>
       </c>
-      <c r="H129" s="7"/>
-      <c r="M129" s="7"/>
-    </row>
-    <row r="130" spans="1:13">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" s="7">
         <v>-37.625</v>
       </c>
@@ -7014,13 +6897,11 @@
       <c r="F130" s="7">
         <v>1</v>
       </c>
-      <c r="G130" s="48">
+      <c r="G130" s="44">
         <v>990000000</v>
       </c>
-      <c r="H130" s="7"/>
-      <c r="M130" s="7"/>
-    </row>
-    <row r="131" spans="1:13">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -7041,13 +6922,11 @@
       <c r="F131" s="7">
         <v>1</v>
       </c>
-      <c r="G131" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H131" s="7"/>
-      <c r="M131" s="7"/>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="G131" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" s="7">
         <v>-36.958300000000001</v>
       </c>
@@ -7068,13 +6947,11 @@
       <c r="F132" s="7">
         <v>1</v>
       </c>
-      <c r="G132" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H132" s="7"/>
-      <c r="M132" s="7"/>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="G132" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" s="7">
         <v>-36.708300000000001</v>
       </c>
@@ -7095,13 +6972,11 @@
       <c r="F133" s="7">
         <v>1</v>
       </c>
-      <c r="G133" s="48">
+      <c r="G133" s="44">
         <v>295000000</v>
       </c>
-      <c r="H133" s="7"/>
-      <c r="M133" s="7"/>
-    </row>
-    <row r="134" spans="1:13">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" s="7">
         <v>-36.625</v>
       </c>
@@ -7122,13 +6997,11 @@
       <c r="F134" s="7">
         <v>1</v>
       </c>
-      <c r="G134" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H134" s="7"/>
-      <c r="M134" s="7"/>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="G134" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -7149,13 +7022,11 @@
       <c r="F135" s="7">
         <v>1</v>
       </c>
-      <c r="G135" s="48">
+      <c r="G135" s="44">
         <v>295000000</v>
       </c>
-      <c r="H135" s="7"/>
-      <c r="M135" s="7"/>
-    </row>
-    <row r="136" spans="1:13">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" s="7">
         <v>-36.041699999999999</v>
       </c>
@@ -7176,13 +7047,11 @@
       <c r="F136" s="7">
         <v>1</v>
       </c>
-      <c r="G136" s="48">
+      <c r="G136" s="44">
         <v>179000000</v>
       </c>
-      <c r="H136" s="7"/>
-      <c r="M136" s="7"/>
-    </row>
-    <row r="137" spans="1:13">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -7203,13 +7072,11 @@
       <c r="F137" s="7">
         <v>1</v>
       </c>
-      <c r="G137" s="48">
+      <c r="G137" s="44">
         <v>10617000000</v>
       </c>
-      <c r="H137" s="7"/>
-      <c r="M137" s="7"/>
-    </row>
-    <row r="138" spans="1:13">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="7">
         <v>-37.875</v>
       </c>
@@ -7230,13 +7097,11 @@
       <c r="F138" s="7">
         <v>1</v>
       </c>
-      <c r="G138" s="48">
+      <c r="G138" s="44">
         <v>40430000000</v>
       </c>
-      <c r="H138" s="7"/>
-      <c r="M138" s="7"/>
-    </row>
-    <row r="139" spans="1:13">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -7257,13 +7122,11 @@
       <c r="F139" s="7">
         <v>1</v>
       </c>
-      <c r="G139" s="48">
+      <c r="G139" s="44">
         <v>39083000000</v>
       </c>
-      <c r="H139" s="7"/>
-      <c r="M139" s="7"/>
-    </row>
-    <row r="140" spans="1:13">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -7284,13 +7147,11 @@
       <c r="F140" s="7">
         <v>1</v>
       </c>
-      <c r="G140" s="48">
+      <c r="G140" s="44">
         <v>597000000</v>
       </c>
-      <c r="H140" s="7"/>
-      <c r="M140" s="7"/>
-    </row>
-    <row r="141" spans="1:13">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" s="7">
         <v>-37.625</v>
       </c>
@@ -7311,13 +7172,11 @@
       <c r="F141" s="7">
         <v>1</v>
       </c>
-      <c r="G141" s="48">
+      <c r="G141" s="44">
         <v>85000000</v>
       </c>
-      <c r="H141" s="7"/>
-      <c r="M141" s="7"/>
-    </row>
-    <row r="142" spans="1:13">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -7338,13 +7197,11 @@
       <c r="F142" s="7">
         <v>1</v>
       </c>
-      <c r="G142" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H142" s="7"/>
-      <c r="M142" s="7"/>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="G142" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="7">
         <v>-37.458300000000001</v>
       </c>
@@ -7365,13 +7222,11 @@
       <c r="F143" s="7">
         <v>1</v>
       </c>
-      <c r="G143" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H143" s="7"/>
-      <c r="M143" s="7"/>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="G143" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -7392,13 +7247,11 @@
       <c r="F144" s="7">
         <v>1</v>
       </c>
-      <c r="G144" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H144" s="7"/>
-      <c r="M144" s="7"/>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="G144" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" s="7">
         <v>-36.375</v>
       </c>
@@ -7419,13 +7272,11 @@
       <c r="F145" s="7">
         <v>1</v>
       </c>
-      <c r="G145" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H145" s="7"/>
-      <c r="M145" s="7"/>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="G145" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -7446,13 +7297,11 @@
       <c r="F146" s="7">
         <v>1</v>
       </c>
-      <c r="G146" s="48">
+      <c r="G146" s="44">
         <v>782000000</v>
       </c>
-      <c r="H146" s="7"/>
-      <c r="M146" s="7"/>
-    </row>
-    <row r="147" spans="1:13">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="7">
         <v>-37.875</v>
       </c>
@@ -7473,13 +7322,11 @@
       <c r="F147" s="7">
         <v>1</v>
       </c>
-      <c r="G147" s="48">
+      <c r="G147" s="44">
         <v>1750000000</v>
       </c>
-      <c r="H147" s="7"/>
-      <c r="M147" s="7"/>
-    </row>
-    <row r="148" spans="1:13">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -7500,13 +7347,11 @@
       <c r="F148" s="7">
         <v>1</v>
       </c>
-      <c r="G148" s="48">
+      <c r="G148" s="44">
         <v>17819000000</v>
       </c>
-      <c r="H148" s="7"/>
-      <c r="M148" s="7"/>
-    </row>
-    <row r="149" spans="1:13">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -7527,13 +7372,11 @@
       <c r="F149" s="7">
         <v>1</v>
       </c>
-      <c r="G149" s="48">
+      <c r="G149" s="44">
         <v>597000000</v>
       </c>
-      <c r="H149" s="7"/>
-      <c r="M149" s="7"/>
-    </row>
-    <row r="150" spans="1:13">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="7">
         <v>-37.625</v>
       </c>
@@ -7554,13 +7397,11 @@
       <c r="F150" s="7">
         <v>1</v>
       </c>
-      <c r="G150" s="48">
+      <c r="G150" s="44">
         <v>179000000</v>
       </c>
-      <c r="H150" s="7"/>
-      <c r="M150" s="7"/>
-    </row>
-    <row r="151" spans="1:13">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" s="7">
         <v>-37.541699999999999</v>
       </c>
@@ -7581,13 +7422,11 @@
       <c r="F151" s="7">
         <v>1</v>
       </c>
-      <c r="G151" s="48">
+      <c r="G151" s="44">
         <v>85000000</v>
       </c>
-      <c r="H151" s="7"/>
-      <c r="M151" s="7"/>
-    </row>
-    <row r="152" spans="1:13">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -7608,13 +7447,11 @@
       <c r="F152" s="7">
         <v>1</v>
       </c>
-      <c r="G152" s="48">
+      <c r="G152" s="44">
         <v>295000000</v>
       </c>
-      <c r="H152" s="7"/>
-      <c r="M152" s="7"/>
-    </row>
-    <row r="153" spans="1:13">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="7">
         <v>-36.375</v>
       </c>
@@ -7635,13 +7472,11 @@
       <c r="F153" s="7">
         <v>1</v>
       </c>
-      <c r="G153" s="48">
+      <c r="G153" s="44">
         <v>10617000000</v>
       </c>
-      <c r="H153" s="7"/>
-      <c r="M153" s="7"/>
-    </row>
-    <row r="154" spans="1:13">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -7662,13 +7497,11 @@
       <c r="F154" s="7">
         <v>1</v>
       </c>
-      <c r="G154" s="48">
+      <c r="G154" s="44">
         <v>434999999.99999994</v>
       </c>
-      <c r="H154" s="7"/>
-      <c r="M154" s="7"/>
-    </row>
-    <row r="155" spans="1:13">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="7">
         <v>-37.875</v>
       </c>
@@ -7689,13 +7522,11 @@
       <c r="F155" s="7">
         <v>1</v>
       </c>
-      <c r="G155" s="48">
+      <c r="G155" s="44">
         <v>179000000</v>
       </c>
-      <c r="H155" s="7"/>
-      <c r="M155" s="7"/>
-    </row>
-    <row r="156" spans="1:13">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -7716,13 +7547,11 @@
       <c r="F156" s="7">
         <v>1</v>
       </c>
-      <c r="G156" s="48">
+      <c r="G156" s="44">
         <v>1221000000</v>
       </c>
-      <c r="H156" s="7"/>
-      <c r="M156" s="7"/>
-    </row>
-    <row r="157" spans="1:13">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -7743,13 +7572,11 @@
       <c r="F157" s="7">
         <v>1</v>
       </c>
-      <c r="G157" s="48">
+      <c r="G157" s="44">
         <v>85000000</v>
       </c>
-      <c r="H157" s="7"/>
-      <c r="M157" s="7"/>
-    </row>
-    <row r="158" spans="1:13">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="7">
         <v>-37.625</v>
       </c>
@@ -7770,13 +7597,11 @@
       <c r="F158" s="7">
         <v>1</v>
       </c>
-      <c r="G158" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H158" s="7"/>
-      <c r="M158" s="7"/>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="G158" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="7">
         <v>-37.208300000000001</v>
       </c>
@@ -7797,13 +7622,11 @@
       <c r="F159" s="7">
         <v>1</v>
       </c>
-      <c r="G159" s="48">
+      <c r="G159" s="44">
         <v>85000000</v>
       </c>
-      <c r="H159" s="7"/>
-      <c r="M159" s="7"/>
-    </row>
-    <row r="160" spans="1:13">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -7824,13 +7647,11 @@
       <c r="F160" s="7">
         <v>1</v>
       </c>
-      <c r="G160" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H160" s="7"/>
-      <c r="M160" s="7"/>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="G160" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="7">
         <v>-36.375</v>
       </c>
@@ -7851,13 +7672,11 @@
       <c r="F161" s="7">
         <v>1</v>
       </c>
-      <c r="G161" s="48">
+      <c r="G161" s="44">
         <v>5261000000</v>
       </c>
-      <c r="H161" s="7"/>
-      <c r="M161" s="7"/>
-    </row>
-    <row r="162" spans="1:13">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="7">
         <v>-36.291699999999999</v>
       </c>
@@ -7878,13 +7697,11 @@
       <c r="F162" s="7">
         <v>1</v>
       </c>
-      <c r="G162" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H162" s="7"/>
-      <c r="M162" s="7"/>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="G162" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="7">
         <v>-36.125</v>
       </c>
@@ -7905,13 +7722,11 @@
       <c r="F163" s="7">
         <v>1</v>
       </c>
-      <c r="G163" s="48">
+      <c r="G163" s="44">
         <v>85000000</v>
       </c>
-      <c r="H163" s="7"/>
-      <c r="M163" s="7"/>
-    </row>
-    <row r="164" spans="1:13">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -7932,13 +7747,11 @@
       <c r="F164" s="7">
         <v>1</v>
       </c>
-      <c r="G164" s="48">
+      <c r="G164" s="44">
         <v>179000000</v>
       </c>
-      <c r="H164" s="7"/>
-      <c r="M164" s="7"/>
-    </row>
-    <row r="165" spans="1:13">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="7">
         <v>-37.875</v>
       </c>
@@ -7959,13 +7772,11 @@
       <c r="F165" s="7">
         <v>1</v>
       </c>
-      <c r="G165" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H165" s="7"/>
-      <c r="M165" s="7"/>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="G165" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -7986,13 +7797,11 @@
       <c r="F166" s="7">
         <v>1</v>
       </c>
-      <c r="G166" s="48">
+      <c r="G166" s="44">
         <v>434999999.99999994</v>
       </c>
-      <c r="H166" s="7"/>
-      <c r="M166" s="7"/>
-    </row>
-    <row r="167" spans="1:13">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" s="7">
         <v>-37.708300000000001</v>
       </c>
@@ -8013,13 +7822,11 @@
       <c r="F167" s="7">
         <v>1</v>
       </c>
-      <c r="G167" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H167" s="7"/>
-      <c r="M167" s="7"/>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="G167" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="7">
         <v>-37.625</v>
       </c>
@@ -8040,13 +7847,11 @@
       <c r="F168" s="7">
         <v>1</v>
       </c>
-      <c r="G168" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H168" s="7"/>
-      <c r="M168" s="7"/>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="G168" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" s="7">
         <v>-35.791699999999999</v>
       </c>
@@ -8067,13 +7872,11 @@
       <c r="F169" s="7">
         <v>1</v>
       </c>
-      <c r="G169" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H169" s="7"/>
-      <c r="M169" s="7"/>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="G169" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" s="7">
         <v>-37.875</v>
       </c>
@@ -8094,13 +7897,11 @@
       <c r="F170" s="7">
         <v>1</v>
       </c>
-      <c r="G170" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H170" s="7"/>
-      <c r="M170" s="7"/>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="G170" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" s="7">
         <v>-37.791699999999999</v>
       </c>
@@ -8121,13 +7922,11 @@
       <c r="F171" s="7">
         <v>1</v>
       </c>
-      <c r="G171" s="48">
+      <c r="G171" s="44">
         <v>990000000</v>
       </c>
-      <c r="H171" s="7"/>
-      <c r="M171" s="7"/>
-    </row>
-    <row r="172" spans="1:13">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" s="7">
         <v>-35.958300000000001</v>
       </c>
@@ -8148,13 +7947,11 @@
       <c r="F172" s="7">
         <v>1</v>
       </c>
-      <c r="G172" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H172" s="7"/>
-      <c r="M172" s="7"/>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="G172" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173" s="7">
         <v>-37.208300000000001</v>
       </c>
@@ -8175,13 +7972,11 @@
       <c r="F173" s="7">
         <v>1</v>
       </c>
-      <c r="G173" s="48">
+      <c r="G173" s="44">
         <v>597000000</v>
       </c>
-      <c r="H173" s="7"/>
-      <c r="M173" s="7"/>
-    </row>
-    <row r="174" spans="1:13">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" s="7">
         <v>-35.375</v>
       </c>
@@ -8202,13 +7997,11 @@
       <c r="F174" s="7">
         <v>1</v>
       </c>
-      <c r="G174" s="48">
+      <c r="G174" s="44">
         <v>179000000</v>
       </c>
-      <c r="H174" s="7"/>
-      <c r="M174" s="7"/>
-    </row>
-    <row r="175" spans="1:13">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="7">
         <v>-37.041699999999999</v>
       </c>
@@ -8229,13 +8022,11 @@
       <c r="F175" s="7">
         <v>1</v>
       </c>
-      <c r="G175" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H175" s="7"/>
-      <c r="M175" s="7"/>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="G175" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" s="7">
         <v>-34.791699999999999</v>
       </c>
@@ -8256,13 +8047,11 @@
       <c r="F176" s="7">
         <v>1</v>
       </c>
-      <c r="G176" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H176" s="7"/>
-      <c r="M176" s="7"/>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="G176" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" s="7">
         <v>-36.541699999999999</v>
       </c>
@@ -8283,13 +8072,11 @@
       <c r="F177" s="7">
         <v>1</v>
       </c>
-      <c r="G177" s="48">
+      <c r="G177" s="44">
         <v>990000000</v>
       </c>
-      <c r="H177" s="7"/>
-      <c r="M177" s="7"/>
-    </row>
-    <row r="178" spans="1:13">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" s="7">
         <v>-36.541699999999999</v>
       </c>
@@ -8310,13 +8097,11 @@
       <c r="F178" s="7">
         <v>1</v>
       </c>
-      <c r="G178" s="48">
+      <c r="G178" s="44">
         <v>295000000</v>
       </c>
-      <c r="H178" s="7"/>
-      <c r="M178" s="7"/>
-    </row>
-    <row r="179" spans="1:13">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" s="7">
         <v>-36.041699999999999</v>
       </c>
@@ -8337,13 +8122,11 @@
       <c r="F179" s="7">
         <v>1</v>
       </c>
-      <c r="G179" s="48">
+      <c r="G179" s="44">
         <v>179000000</v>
       </c>
-      <c r="H179" s="7"/>
-      <c r="M179" s="7"/>
-    </row>
-    <row r="180" spans="1:13">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" s="7">
         <v>-35.958300000000001</v>
       </c>
@@ -8364,13 +8147,11 @@
       <c r="F180" s="7">
         <v>1</v>
       </c>
-      <c r="G180" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H180" s="7"/>
-      <c r="M180" s="7"/>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="G180" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" s="7">
         <v>-34.375</v>
       </c>
@@ -8391,13 +8172,11 @@
       <c r="F181" s="7">
         <v>1</v>
       </c>
-      <c r="G181" s="48">
+      <c r="G181" s="44">
         <v>179000000</v>
       </c>
-      <c r="H181" s="7"/>
-      <c r="M181" s="7"/>
-    </row>
-    <row r="182" spans="1:13">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" s="7">
         <v>-34.291699999999999</v>
       </c>
@@ -8418,13 +8197,11 @@
       <c r="F182" s="7">
         <v>1</v>
       </c>
-      <c r="G182" s="48">
+      <c r="G182" s="44">
         <v>31479000000</v>
       </c>
-      <c r="H182" s="7"/>
-      <c r="M182" s="7"/>
-    </row>
-    <row r="183" spans="1:13">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" s="7">
         <v>-37.041699999999999</v>
       </c>
@@ -8445,13 +8222,11 @@
       <c r="F183" s="7">
         <v>1</v>
       </c>
-      <c r="G183" s="48">
+      <c r="G183" s="44">
         <v>85000000</v>
       </c>
-      <c r="H183" s="7"/>
-      <c r="M183" s="7"/>
-    </row>
-    <row r="184" spans="1:13">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" s="7">
         <v>-34.291699999999999</v>
       </c>
@@ -8472,13 +8247,11 @@
       <c r="F184" s="7">
         <v>1</v>
       </c>
-      <c r="G184" s="48">
+      <c r="G184" s="44">
         <v>295000000</v>
       </c>
-      <c r="H184" s="7"/>
-      <c r="M184" s="7"/>
-    </row>
-    <row r="185" spans="1:13">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -8499,13 +8272,11 @@
       <c r="F185" s="7">
         <v>1</v>
       </c>
-      <c r="G185" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H185" s="7"/>
-      <c r="M185" s="7"/>
-    </row>
-    <row r="186" spans="1:13">
+      <c r="G185" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" s="7">
         <v>-36.375</v>
       </c>
@@ -8526,13 +8297,11 @@
       <c r="F186" s="7">
         <v>1</v>
       </c>
-      <c r="G186" s="48">
+      <c r="G186" s="44">
         <v>8626000000</v>
       </c>
-      <c r="H186" s="7"/>
-      <c r="M186" s="7"/>
-    </row>
-    <row r="187" spans="1:13">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -8553,13 +8322,11 @@
       <c r="F187" s="7">
         <v>1</v>
       </c>
-      <c r="G187" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H187" s="7"/>
-      <c r="M187" s="7"/>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="G187" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" s="7">
         <v>-36.375</v>
       </c>
@@ -8580,13 +8347,11 @@
       <c r="F188" s="7">
         <v>1</v>
       </c>
-      <c r="G188" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H188" s="7"/>
-      <c r="M188" s="7"/>
-    </row>
-    <row r="189" spans="1:13">
+      <c r="G188" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" s="7">
         <v>-36.041699999999999</v>
       </c>
@@ -8607,13 +8372,11 @@
       <c r="F189" s="7">
         <v>1</v>
       </c>
-      <c r="G189" s="48">
+      <c r="G189" s="44">
         <v>85000000</v>
       </c>
-      <c r="H189" s="7"/>
-      <c r="M189" s="7"/>
-    </row>
-    <row r="190" spans="1:13">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190" s="7">
         <v>-35.958300000000001</v>
       </c>
@@ -8634,13 +8397,11 @@
       <c r="F190" s="7">
         <v>1</v>
       </c>
-      <c r="G190" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H190" s="7"/>
-      <c r="M190" s="7"/>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="G190" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" s="7">
         <v>-34.541699999999999</v>
       </c>
@@ -8661,13 +8422,11 @@
       <c r="F191" s="7">
         <v>1</v>
       </c>
-      <c r="G191" s="48">
+      <c r="G191" s="44">
         <v>2049000000</v>
       </c>
-      <c r="H191" s="7"/>
-      <c r="M191" s="7"/>
-    </row>
-    <row r="192" spans="1:13">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" s="7">
         <v>-37.125</v>
       </c>
@@ -8688,13 +8447,11 @@
       <c r="F192" s="7">
         <v>1</v>
       </c>
-      <c r="G192" s="48">
+      <c r="G192" s="44">
         <v>85000000</v>
       </c>
-      <c r="H192" s="7"/>
-      <c r="M192" s="7"/>
-    </row>
-    <row r="193" spans="1:13">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193" s="7">
         <v>-36.458300000000001</v>
       </c>
@@ -8715,13 +8472,11 @@
       <c r="F193" s="7">
         <v>1</v>
       </c>
-      <c r="G193" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H193" s="7"/>
-      <c r="M193" s="7"/>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="G193" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" s="7">
         <v>-36.041699999999999</v>
       </c>
@@ -8742,13 +8497,11 @@
       <c r="F194" s="7">
         <v>1</v>
       </c>
-      <c r="G194" s="48">
+      <c r="G194" s="44">
         <v>295000000</v>
       </c>
-      <c r="H194" s="7"/>
-      <c r="M194" s="7"/>
-    </row>
-    <row r="195" spans="1:13">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" s="7">
         <v>-35.958300000000001</v>
       </c>
@@ -8769,13 +8522,11 @@
       <c r="F195" s="7">
         <v>1</v>
       </c>
-      <c r="G195" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H195" s="7"/>
-      <c r="M195" s="7"/>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="G195" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" s="7">
         <v>-36.541699999999999</v>
       </c>
@@ -8796,13 +8547,11 @@
       <c r="F196" s="7">
         <v>1</v>
       </c>
-      <c r="G196" s="48">
+      <c r="G196" s="44">
         <v>434999999.99999994</v>
       </c>
-      <c r="H196" s="7"/>
-      <c r="M196" s="7"/>
-    </row>
-    <row r="197" spans="1:13">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="7">
         <v>-36.375</v>
       </c>
@@ -8823,13 +8572,11 @@
       <c r="F197" s="7">
         <v>1</v>
       </c>
-      <c r="G197" s="48">
+      <c r="G197" s="44">
         <v>434999999.99999994</v>
       </c>
-      <c r="H197" s="7"/>
-      <c r="M197" s="7"/>
-    </row>
-    <row r="198" spans="1:13">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" s="7">
         <v>-36.125</v>
       </c>
@@ -8850,13 +8597,11 @@
       <c r="F198" s="7">
         <v>1</v>
       </c>
-      <c r="G198" s="48">
+      <c r="G198" s="44">
         <v>179000000</v>
       </c>
-      <c r="H198" s="7"/>
-      <c r="M198" s="7"/>
-    </row>
-    <row r="199" spans="1:13">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" s="7">
         <v>-35.208300000000001</v>
       </c>
@@ -8877,13 +8622,11 @@
       <c r="F199" s="7">
         <v>1</v>
       </c>
-      <c r="G199" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H199" s="7"/>
-      <c r="M199" s="7"/>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="G199" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -8904,13 +8647,11 @@
       <c r="F200" s="7">
         <v>1</v>
       </c>
-      <c r="G200" s="48">
+      <c r="G200" s="44">
         <v>85000000</v>
       </c>
-      <c r="H200" s="7"/>
-      <c r="M200" s="7"/>
-    </row>
-    <row r="201" spans="1:13">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201" s="7">
         <v>-36.208300000000001</v>
       </c>
@@ -8931,13 +8672,11 @@
       <c r="F201" s="7">
         <v>1</v>
       </c>
-      <c r="G201" s="48">
-        <v>14000000</v>
-      </c>
-      <c r="H201" s="7"/>
-      <c r="M201" s="7"/>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="G201" s="44">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202" s="7">
         <v>-36.125</v>
       </c>
@@ -8958,13 +8697,11 @@
       <c r="F202" s="7">
         <v>1</v>
       </c>
-      <c r="G202" s="48">
+      <c r="G202" s="44">
         <v>40430000000</v>
       </c>
-      <c r="H202" s="7"/>
-      <c r="M202" s="7"/>
-    </row>
-    <row r="203" spans="1:13">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203" s="7">
         <v>-36.041699999999999</v>
       </c>
@@ -8985,13 +8722,11 @@
       <c r="F203" s="7">
         <v>1</v>
       </c>
-      <c r="G203" s="48">
+      <c r="G203" s="44">
         <v>85000000</v>
       </c>
-      <c r="H203" s="7"/>
-      <c r="M203" s="7"/>
-    </row>
-    <row r="204" spans="1:13">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204" s="7">
         <v>-35.958300000000001</v>
       </c>
@@ -9012,13 +8747,11 @@
       <c r="F204" s="7">
         <v>1</v>
       </c>
-      <c r="G204" s="48">
+      <c r="G204" s="44">
         <v>179000000</v>
       </c>
-      <c r="H204" s="7"/>
-      <c r="M204" s="7"/>
-    </row>
-    <row r="205" spans="1:13">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A205" s="7">
         <v>-37.958300000000001</v>
       </c>
@@ -9039,13 +8772,11 @@
       <c r="F205" s="7">
         <v>1</v>
       </c>
-      <c r="G205" s="48">
+      <c r="G205" s="44">
         <v>597000000</v>
       </c>
-      <c r="H205" s="7"/>
-      <c r="M205" s="7"/>
-    </row>
-    <row r="206" spans="1:13">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206" s="7">
         <v>-36.708300000000001</v>
       </c>
@@ -9066,13 +8797,11 @@
       <c r="F206" s="7">
         <v>1</v>
       </c>
-      <c r="G206" s="48">
+      <c r="G206" s="44">
         <v>179000000</v>
       </c>
-      <c r="H206" s="7"/>
-      <c r="M206" s="7"/>
-    </row>
-    <row r="207" spans="1:13">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A207" s="7">
         <v>-36.208300000000001</v>
       </c>
@@ -9093,13 +8822,11 @@
       <c r="F207" s="7">
         <v>1</v>
       </c>
-      <c r="G207" s="48">
+      <c r="G207" s="44">
         <v>85000000</v>
       </c>
-      <c r="H207" s="7"/>
-      <c r="M207" s="7"/>
-    </row>
-    <row r="208" spans="1:13">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" s="7">
         <v>-36.125</v>
       </c>
@@ -9120,13 +8847,11 @@
       <c r="F208" s="7">
         <v>1</v>
       </c>
-      <c r="G208" s="48">
+      <c r="G208" s="44">
         <v>597000000</v>
       </c>
-      <c r="H208" s="7"/>
-      <c r="M208" s="7"/>
-    </row>
-    <row r="209" spans="1:13">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A209" s="7">
         <v>-36.041699999999999</v>
       </c>
@@ -9147,41 +8872,38 @@
       <c r="F209" s="7">
         <v>1</v>
       </c>
-      <c r="G209" s="48">
+      <c r="G209" s="44">
         <v>27985000000.000004</v>
       </c>
-      <c r="H209" s="7"/>
-      <c r="M209" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="8" style="16" customWidth="1"/>
-    <col min="3" max="3" width="12" style="16" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
@@ -9197,558 +8919,878 @@
       <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="17">
         <v>2</v>
       </c>
       <c r="B2" s="17">
         <v>0</v>
       </c>
-      <c r="C2" s="17">
-        <v>0</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
-        <f t="shared" ref="E2:E13" si="0">C2*D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="64">
+        <v>0</v>
+      </c>
+      <c r="D2" s="64">
+        <v>0</v>
+      </c>
+      <c r="E2" s="64">
+        <f t="shared" ref="E2:E14" si="0">C2*D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="17">
         <v>10</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="64">
         <v>0.01</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="64">
         <v>0.01</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="64">
         <f t="shared" si="0"/>
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>2</v>
       </c>
       <c r="B4" s="17">
         <v>20</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="64">
         <v>0.02</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="64">
         <v>0.01</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="64">
         <f t="shared" si="0"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>2</v>
       </c>
       <c r="B5" s="17">
         <v>30</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="64">
         <v>0.03</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="64">
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="64">
         <f t="shared" si="0"/>
         <v>1.7099999999999997E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>2</v>
       </c>
       <c r="B6" s="17">
         <v>40</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="64">
         <v>0.1</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="64">
         <v>0.1</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="64">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>2</v>
       </c>
       <c r="B7" s="17">
         <v>50</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="64">
         <v>0.15</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="64">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="64">
         <f t="shared" si="0"/>
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>2</v>
       </c>
       <c r="B8" s="17">
         <v>60</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="64">
         <v>0.2</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="64">
         <v>0.17700000000000002</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="64">
         <f t="shared" si="0"/>
         <v>3.5400000000000008E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
         <v>2</v>
       </c>
       <c r="B9" s="17">
         <v>70</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="64">
         <v>0.3</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="64">
         <v>0.214</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="64">
         <f t="shared" si="0"/>
         <v>6.4199999999999993E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>2</v>
       </c>
       <c r="B10" s="17">
         <v>80</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="64">
         <v>0.4</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="64">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="64">
         <f t="shared" si="0"/>
         <v>0.11200000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
         <v>2</v>
       </c>
       <c r="B11" s="17">
         <v>90</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="64">
         <v>0.45</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="64">
         <v>0.34</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="64">
         <f t="shared" si="0"/>
         <v>0.15300000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="17">
         <v>2</v>
       </c>
       <c r="B12" s="17">
         <v>100</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="64">
         <v>0.5</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="64">
         <v>0.4</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="64">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
         <v>2</v>
       </c>
       <c r="B13" s="17">
         <v>110</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="64">
         <v>0.5</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="64">
         <v>0.5</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="64">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="18">
-        <v>1</v>
-      </c>
-      <c r="B14" s="18">
-        <v>0</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0</v>
-      </c>
-      <c r="D14" s="32">
-        <v>0</v>
-      </c>
-      <c r="E14" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F13" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
+        <v>2</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1700</v>
+      </c>
+      <c r="C14" s="64">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D14" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="64">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="18">
         <v>1</v>
       </c>
       <c r="B15" s="18">
+        <v>0</v>
+      </c>
+      <c r="C15" s="65">
+        <v>0</v>
+      </c>
+      <c r="D15" s="65">
+        <v>0</v>
+      </c>
+      <c r="E15" s="65">
+        <f>C15*D15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="18">
+        <v>1</v>
+      </c>
+      <c r="B16" s="18">
         <v>30</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C16" s="65">
         <v>1E-4</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D16" s="65">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E15" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="18">
-        <v>1</v>
-      </c>
-      <c r="B16" s="18">
+      <c r="E16" s="65">
+        <f t="shared" ref="E16:E23" si="1">C16*D16</f>
+        <v>2.5000000000000004E-7</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="18">
+        <v>1</v>
+      </c>
+      <c r="B17" s="18">
         <v>50</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C17" s="65">
         <v>1E-3</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D17" s="65">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E16" s="32">
-        <f>C16*D16</f>
+      <c r="E17" s="65">
+        <f t="shared" si="1"/>
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="18">
-        <v>1</v>
-      </c>
-      <c r="B17" s="18">
+      <c r="F17" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="18">
         <v>100</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C18" s="65">
         <v>0.01</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D18" s="65">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E17" s="32">
-        <f t="shared" ref="E17:E22" si="1">C17*D17</f>
+      <c r="E18" s="65">
+        <f t="shared" si="1"/>
         <v>2.5000000000000001E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="18">
+      <c r="F18" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="18">
+        <v>1</v>
+      </c>
+      <c r="B19" s="18">
         <v>400</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C19" s="65">
         <v>0.1</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D19" s="65">
         <v>0.06</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E19" s="65">
         <f t="shared" si="1"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="R18" s="32"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="18">
-        <v>1</v>
-      </c>
-      <c r="B19" s="18">
+      <c r="F19" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="18">
+        <v>1</v>
+      </c>
+      <c r="B20" s="18">
         <v>600</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C20" s="65">
         <v>0.25</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D20" s="65">
         <v>0.125</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E20" s="65">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="P19" s="18"/>
-      <c r="R19" s="32"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="18">
-        <v>1</v>
-      </c>
-      <c r="B20" s="18">
+      <c r="F20" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="18">
+        <v>1</v>
+      </c>
+      <c r="B21" s="18">
         <v>800</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C21" s="65">
         <v>0.45</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D21" s="65">
         <v>0.17499999999999999</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E21" s="65">
         <f t="shared" si="1"/>
         <v>7.8750000000000001E-2</v>
       </c>
-      <c r="P20" s="18"/>
-      <c r="R20" s="32"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="18">
-        <v>1</v>
-      </c>
-      <c r="B21" s="18">
+      <c r="F21" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="18">
+        <v>1</v>
+      </c>
+      <c r="B22" s="18">
         <v>1200</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C22" s="65">
         <v>0.85</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D22" s="65">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E22" s="65">
         <f t="shared" si="1"/>
         <v>0.19125</v>
       </c>
-      <c r="P21" s="18"/>
-      <c r="R21" s="32"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="18">
-        <v>1</v>
-      </c>
-      <c r="B22" s="18">
+      <c r="F22" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="18">
+        <v>1</v>
+      </c>
+      <c r="B23" s="18">
         <v>1700</v>
       </c>
-      <c r="C22" s="18">
-        <v>1</v>
-      </c>
-      <c r="D22" s="32">
+      <c r="C23" s="65">
+        <v>1</v>
+      </c>
+      <c r="D23" s="65">
         <v>0.25</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E23" s="65">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="P22" s="18"/>
-      <c r="R22" s="32"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="17">
-        <v>3</v>
-      </c>
-      <c r="B23" s="17">
-        <v>0</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0</v>
-      </c>
-      <c r="D23" s="33">
-        <v>0</v>
-      </c>
-      <c r="E23" s="34">
-        <v>0</v>
-      </c>
-      <c r="P23" s="18"/>
-      <c r="R23" s="32"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="F23" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="17">
         <v>3</v>
       </c>
       <c r="B24" s="17">
-        <v>20</v>
-      </c>
-      <c r="C24" s="17">
-        <f>E24/D24</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="33">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="E24" s="34">
-        <v>0</v>
-      </c>
-      <c r="P24" s="18"/>
-      <c r="R24" s="32"/>
-    </row>
-    <row r="25" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="C24" s="64">
+        <v>0</v>
+      </c>
+      <c r="D24" s="64">
+        <v>0</v>
+      </c>
+      <c r="E24" s="66">
+        <f>C24*D24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="17">
         <v>3</v>
       </c>
       <c r="B25" s="17">
-        <v>30</v>
-      </c>
-      <c r="C25" s="17">
-        <v>0</v>
-      </c>
-      <c r="D25" s="33">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="E25" s="34">
-        <v>0</v>
-      </c>
-      <c r="P25" s="18"/>
-      <c r="R25" s="32"/>
-    </row>
-    <row r="26" spans="1:18">
+        <v>20</v>
+      </c>
+      <c r="C25" s="64">
+        <v>0</v>
+      </c>
+      <c r="D25" s="64">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E25" s="66">
+        <f t="shared" ref="E25:E33" si="2">C25*D25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="17">
         <v>3</v>
       </c>
       <c r="B26" s="17">
-        <v>40</v>
-      </c>
-      <c r="C26" s="17">
-        <f t="shared" ref="C26:C31" si="2">E26/D26</f>
-        <v>7.0422535211267616E-3</v>
-      </c>
-      <c r="D26" s="33">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="E26" s="34">
-        <v>1E-3</v>
-      </c>
-      <c r="P26" s="18"/>
-    </row>
-    <row r="27" spans="1:18">
+        <v>30</v>
+      </c>
+      <c r="C26" s="64">
+        <v>0</v>
+      </c>
+      <c r="D26" s="64">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E26" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="17">
         <v>3</v>
       </c>
       <c r="B27" s="17">
-        <v>50</v>
-      </c>
-      <c r="C27" s="17">
+        <v>40</v>
+      </c>
+      <c r="C27" s="64">
+        <v>7.0422535211267616E-3</v>
+      </c>
+      <c r="D27" s="64">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E27" s="66">
         <f t="shared" si="2"/>
-        <v>3.5087719298245619E-2</v>
-      </c>
-      <c r="D27" s="33">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="E27" s="34">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>1E-3</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="17">
         <v>3</v>
       </c>
       <c r="B28" s="17">
-        <v>60</v>
-      </c>
-      <c r="C28" s="17">
+        <v>50</v>
+      </c>
+      <c r="C28" s="64">
+        <v>3.5087719298245619E-2</v>
+      </c>
+      <c r="D28" s="64">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E28" s="66">
         <f t="shared" si="2"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="D28" s="33">
-        <v>0.45</v>
-      </c>
-      <c r="E28" s="34">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>0.01</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="17">
         <v>3</v>
       </c>
       <c r="B29" s="17">
-        <v>70</v>
-      </c>
-      <c r="C29" s="17">
+        <v>60</v>
+      </c>
+      <c r="C29" s="64">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="D29" s="64">
+        <v>0.45</v>
+      </c>
+      <c r="E29" s="66">
         <f t="shared" si="2"/>
-        <v>0.23611111111111113</v>
-      </c>
-      <c r="D29" s="33">
-        <v>0.72</v>
-      </c>
-      <c r="E29" s="34">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="17">
         <v>3</v>
       </c>
       <c r="B30" s="17">
-        <v>80</v>
-      </c>
-      <c r="C30" s="17">
-        <f>E30/D30</f>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="D30" s="33">
-        <v>0.8</v>
-      </c>
-      <c r="E30" s="34">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>70</v>
+      </c>
+      <c r="C30" s="64">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="D30" s="64">
+        <v>0.72</v>
+      </c>
+      <c r="E30" s="66">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="17">
         <v>3</v>
       </c>
       <c r="B31" s="17">
+        <v>80</v>
+      </c>
+      <c r="C31" s="64">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D31" s="64">
+        <v>0.8</v>
+      </c>
+      <c r="E31" s="66">
+        <f t="shared" si="2"/>
+        <v>0.38</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="17">
+        <v>3</v>
+      </c>
+      <c r="B32" s="17">
         <v>100</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C32" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="64">
+        <v>0.9</v>
+      </c>
+      <c r="E32" s="66">
         <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="D31" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="17">
+        <v>3</v>
+      </c>
+      <c r="B33" s="17">
+        <v>1700</v>
+      </c>
+      <c r="C33" s="64">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D33" s="64">
         <v>0.9</v>
       </c>
-      <c r="E31" s="34">
-        <v>0.45</v>
+      <c r="E33" s="66">
+        <f t="shared" si="2"/>
+        <v>0.49500000000000005</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -9756,33 +9798,35 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J4"/>
+      <selection activeCell="A5" sqref="A5:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="11" width="9.42578125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="16.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="51">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -9792,42 +9836,45 @@
       <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="42" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="3">
@@ -9840,7 +9887,7 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="35" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="1">
@@ -9855,7 +9902,7 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="35" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="1">
@@ -9864,125 +9911,104 @@
       <c r="M2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="35" customFormat="1">
-      <c r="A3" s="51" t="s">
+      <c r="N2" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="57">
         <f>_discounting_sheet!D19</f>
         <v>3049933.6077201287</v>
       </c>
-      <c r="D3" s="35">
-        <v>0</v>
-      </c>
-      <c r="E3" s="35">
-        <v>0</v>
-      </c>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="32">
+        <v>0</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="32">
         <v>0.97</v>
       </c>
-      <c r="H3" s="35">
-        <v>0</v>
-      </c>
-      <c r="I3" s="35">
+      <c r="H3" s="32">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32">
         <v>0.92</v>
       </c>
-      <c r="J3" s="35">
-        <v>0</v>
-      </c>
-      <c r="K3" s="38" t="s">
+      <c r="J3" s="32">
+        <v>0</v>
+      </c>
+      <c r="K3" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="35">
-        <v>0</v>
-      </c>
-      <c r="M3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="35" customFormat="1">
-      <c r="A4" s="51" t="s">
+      <c r="L3" s="32">
+        <v>0</v>
+      </c>
+      <c r="M3" s="32">
+        <v>0</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="34">
         <f>_discounting_sheet!E19</f>
         <v>2734021264.1732774</v>
       </c>
-      <c r="D4" s="35">
-        <v>0</v>
-      </c>
-      <c r="E4" s="35">
-        <v>0</v>
-      </c>
-      <c r="F4" s="38" t="s">
+      <c r="D4" s="32">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="32">
         <v>0.72</v>
       </c>
-      <c r="H4" s="35">
-        <v>0</v>
-      </c>
-      <c r="I4" s="35">
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32">
         <v>0.63</v>
       </c>
-      <c r="J4" s="35">
-        <v>0</v>
-      </c>
-      <c r="K4" s="38" t="s">
+      <c r="J4" s="32">
+        <v>0</v>
+      </c>
+      <c r="K4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="35">
-        <v>0</v>
-      </c>
-      <c r="M4" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="35" customFormat="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="1:13" s="35" customFormat="1">
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="K6" s="38"/>
-    </row>
-    <row r="7" spans="1:13" s="35" customFormat="1">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="F7" s="38"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="47"/>
-      <c r="C8" s="3"/>
-      <c r="F8" s="38"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="50"/>
+      <c r="L4" s="32">
+        <v>0</v>
+      </c>
+      <c r="M4" s="32">
+        <v>0</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9994,14 +10020,14 @@
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -10012,7 +10038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10023,7 +10049,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10034,7 +10060,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -10045,7 +10071,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -10056,7 +10082,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -10067,7 +10093,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -10078,7 +10104,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -10089,7 +10115,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -10100,7 +10126,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -10111,7 +10137,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -10122,7 +10148,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -10133,7 +10159,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -10144,7 +10170,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -10155,7 +10181,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -10166,7 +10192,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -10177,7 +10203,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -10188,7 +10214,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -10199,7 +10225,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -10210,7 +10236,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -10221,7 +10247,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -10232,7 +10258,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -10243,7 +10269,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -10254,7 +10280,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -10265,7 +10291,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -10276,7 +10302,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -10287,7 +10313,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -10298,7 +10324,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -10309,7 +10335,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -10320,7 +10346,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -10331,7 +10357,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -10342,7 +10368,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -10353,7 +10379,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -10364,7 +10390,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -10375,7 +10401,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -10386,7 +10412,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -10397,7 +10423,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -10408,7 +10434,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -10419,7 +10445,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -10430,7 +10456,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -10441,7 +10467,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -10452,7 +10478,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -10463,7 +10489,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -10474,7 +10500,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -10485,7 +10511,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -10496,7 +10522,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -10507,7 +10533,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -10518,7 +10544,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -10529,7 +10555,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -10540,7 +10566,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -10551,7 +10577,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -10562,7 +10588,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -10576,11 +10602,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10592,19 +10613,19 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="9.1640625" style="1"/>
     <col min="9" max="9" width="5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -10614,7 +10635,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
         <v>37</v>
@@ -10623,12 +10644,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2016</v>
       </c>
@@ -10636,7 +10657,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2030</v>
       </c>
@@ -10654,7 +10675,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I6" s="1">
         <v>2016</v>
       </c>
@@ -10667,7 +10688,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -10683,7 +10704,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="20">
         <f>B5/B4</f>
         <v>1</v>
@@ -10700,7 +10721,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I9" s="1">
         <v>2019</v>
       </c>
@@ -10713,7 +10734,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I10" s="1">
         <v>2020</v>
       </c>
@@ -10726,7 +10747,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -10749,7 +10770,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -10765,7 +10786,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -10786,7 +10807,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I14" s="1">
         <v>2024</v>
       </c>
@@ -10799,7 +10820,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I15" s="1">
         <v>2025</v>
       </c>
@@ -10812,7 +10833,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I16" s="1">
         <v>2026</v>
       </c>
@@ -10825,7 +10846,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="17" spans="9:11">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.15">
       <c r="I17" s="1">
         <v>2027</v>
       </c>
@@ -10838,7 +10859,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="18" spans="9:11">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.15">
       <c r="I18" s="1">
         <v>2028</v>
       </c>
@@ -10851,7 +10872,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="19" spans="9:11">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.15">
       <c r="I19" s="1">
         <v>2029</v>
       </c>
@@ -10864,7 +10885,7 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="20" spans="9:11">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.15">
       <c r="I20" s="1">
         <v>2030</v>
       </c>
@@ -10877,30 +10898,25 @@
         <v>1293700000000</v>
       </c>
     </row>
-    <row r="21" spans="9:11">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.15">
       <c r="J21" s="5"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="9:11">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.15">
       <c r="J22" s="5"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="9:11">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.15">
       <c r="J23" s="5"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="9:11">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.15">
       <c r="J24" s="5"/>
       <c r="K24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10912,26 +10928,26 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
         <v>46</v>
       </c>
@@ -10946,7 +10962,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -10956,7 +10972,7 @@
       </c>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -10966,7 +10982,7 @@
       </c>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
@@ -10976,7 +10992,7 @@
       </c>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="14.25">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
@@ -10989,10 +11005,10 @@
       </c>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="14.25">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -11001,10 +11017,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -11016,7 +11032,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="26" t="s">
         <v>57</v>
       </c>
@@ -11028,7 +11044,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -11037,7 +11053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
         <v>31</v>
       </c>
@@ -11052,12 +11068,12 @@
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -11065,7 +11081,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -11076,7 +11092,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -11088,7 +11104,7 @@
       </c>
       <c r="D22" s="14"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="19" t="s">
         <v>26</v>
       </c>
@@ -11103,7 +11119,7 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -11114,7 +11130,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>58</v>
       </c>
@@ -11125,7 +11141,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="19" t="s">
         <v>28</v>
       </c>
@@ -11140,12 +11156,12 @@
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -11156,7 +11172,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
@@ -11167,7 +11183,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -11178,7 +11194,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -11189,7 +11205,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>58</v>
       </c>
@@ -11201,7 +11217,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="19" t="s">
         <v>30</v>
       </c>
@@ -11216,12 +11232,12 @@
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -11232,7 +11248,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>72</v>
       </c>
@@ -11243,7 +11259,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -11255,7 +11271,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="27" t="s">
         <v>74</v>
       </c>
@@ -11266,7 +11282,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
@@ -11278,7 +11294,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>58</v>
       </c>
@@ -11292,11 +11308,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11304,61 +11315,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="15.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="11" width="15.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="43" customFormat="1" ht="38.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:12" s="39" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="41"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2016</v>
       </c>
@@ -11366,14 +11376,14 @@
         <f>discount!C16</f>
         <v>0.02</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="47">
         <v>18500000</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="51">
         <f>D$23*D26</f>
         <v>2933280.4538999996</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="51">
         <f>16932990000</f>
         <v>16932990000</v>
       </c>
@@ -11390,11 +11400,11 @@
         <v>16946050036.25144</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="55"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3" s="49"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="49"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2017</v>
       </c>
@@ -11402,32 +11412,32 @@
         <f>discount!C17</f>
         <v>0.02</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="47">
         <v>18500000</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="51">
         <f t="shared" ref="D4:D17" si="3">D$23*D$22</f>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="62">
+      <c r="E4" s="48"/>
+      <c r="F4" s="56">
         <f t="shared" si="0"/>
         <v>228444914.30094892</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="56">
         <f t="shared" si="1"/>
         <v>19317996.451512333</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="56">
         <f t="shared" si="2"/>
         <v>13321236.976468263</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="56"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4" s="50"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="50"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2018</v>
       </c>
@@ -11435,32 +11445,32 @@
         <f>discount!C18</f>
         <v>0.02</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="47">
         <v>18500000</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="51">
         <f t="shared" si="3"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="62">
+      <c r="E5" s="48"/>
+      <c r="F5" s="56">
         <f t="shared" si="0"/>
         <v>214143812.58696789</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="56">
         <f t="shared" si="1"/>
         <v>18108651.813620981</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="56">
         <f t="shared" si="2"/>
         <v>13587661.715997629</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="56"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="50"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="50"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2019</v>
       </c>
@@ -11468,32 +11478,32 @@
         <f>discount!C19</f>
         <v>0.02</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="47">
         <v>18500000</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="51">
         <f t="shared" si="3"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="62">
+      <c r="E6" s="48"/>
+      <c r="F6" s="56">
         <f t="shared" si="0"/>
         <v>199556688.83870724</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="56">
         <f t="shared" si="1"/>
         <v>16875120.282971799</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="56">
         <f t="shared" si="2"/>
         <v>13859414.950317582</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="56"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="50"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="50"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2020</v>
       </c>
@@ -11501,32 +11511,32 @@
         <f>discount!C20</f>
         <v>0.02</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="47">
         <v>18500000</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="51">
         <f t="shared" si="3"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="62">
+      <c r="E7" s="48"/>
+      <c r="F7" s="56">
         <f t="shared" si="0"/>
         <v>184677822.61548138</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="56">
         <f t="shared" si="1"/>
         <v>15616918.121709634</v>
       </c>
-      <c r="H7" s="62">
+      <c r="H7" s="56">
         <f t="shared" si="2"/>
         <v>14136603.249323934</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="56"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="J7" s="50"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="50"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>2021</v>
       </c>
@@ -11534,35 +11544,35 @@
         <f>discount!C21</f>
         <v>0.02</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="47">
         <v>18500000</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="51">
         <f t="shared" si="3"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="51">
         <f>1293385*5.85</f>
         <v>7566302.25</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="56">
         <f t="shared" si="0"/>
         <v>169501379.06779101</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="56">
         <f t="shared" si="1"/>
         <v>14333551.917222228</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H8" s="56">
         <f t="shared" si="2"/>
         <v>14419335.314310413</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="56"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="J8" s="50"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="50"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2022</v>
       </c>
@@ -11570,32 +11580,32 @@
         <f>discount!C22</f>
         <v>0.02</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="47">
         <v>18500000</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="51">
         <f t="shared" si="3"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="62">
+      <c r="E9" s="48"/>
+      <c r="F9" s="56">
         <f t="shared" si="0"/>
         <v>154021406.64914683</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="56">
         <f t="shared" si="1"/>
         <v>13024518.388645072</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="56">
         <f t="shared" si="2"/>
         <v>6990093.7255966216</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="56"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="J9" s="50"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="50"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>2023</v>
       </c>
@@ -11603,32 +11613,32 @@
         <f>discount!C23</f>
         <v>0.02</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="47">
         <v>18500000</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="51">
         <f t="shared" si="3"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="62">
+      <c r="E10" s="48"/>
+      <c r="F10" s="56">
         <f t="shared" si="0"/>
         <v>138231834.78212976</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="56">
         <f t="shared" si="1"/>
         <v>11689304.189496372</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="56">
         <f t="shared" si="2"/>
         <v>7129895.6001085546</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="56"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="J10" s="50"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="50"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>2024</v>
       </c>
@@ -11636,32 +11646,32 @@
         <f>discount!C24</f>
         <v>0.02</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="47">
         <v>18500000</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="51">
         <f t="shared" si="3"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="62">
+      <c r="E11" s="48"/>
+      <c r="F11" s="56">
         <f t="shared" si="0"/>
         <v>122126471.47777234</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="56">
         <f t="shared" si="1"/>
         <v>10327385.706364699</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="56">
         <f t="shared" si="2"/>
         <v>7272493.512110726</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="56"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="J11" s="50"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="50"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>2025</v>
       </c>
@@ -11669,32 +11679,32 @@
         <f>discount!C25</f>
         <v>0.02</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="47">
         <v>18500000</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="51">
         <f t="shared" si="3"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="62">
+      <c r="E12" s="48"/>
+      <c r="F12" s="56">
         <f t="shared" si="0"/>
         <v>105699000.90732779</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="56">
         <f t="shared" si="1"/>
         <v>8938228.8535703942</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="56">
         <f t="shared" si="2"/>
         <v>7417943.3823529407</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="56"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="J12" s="50"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="50"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>2026</v>
       </c>
@@ -11702,35 +11712,35 @@
         <f>discount!C26</f>
         <v>0.02</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="47">
         <v>18500000</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="51">
         <f t="shared" si="3"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="51">
         <f>1293385*5.85</f>
         <v>7566302.25</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="56">
         <f t="shared" si="0"/>
         <v>88942980.925474346</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="56">
         <f t="shared" si="1"/>
         <v>7521288.8637202019</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="56">
         <f t="shared" si="2"/>
         <v>7566302.25</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="56"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13" s="50"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="50"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>2027</v>
       </c>
@@ -11738,32 +11748,32 @@
         <f>discount!C27</f>
         <v>0.02</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="47">
         <v>18500000</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="51">
         <f t="shared" si="3"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="62">
+      <c r="E14" s="48"/>
+      <c r="F14" s="56">
         <f t="shared" si="0"/>
         <v>71851840.543983832</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="56">
         <f t="shared" si="1"/>
         <v>6076010.0740730055</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="56"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="J14" s="50"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="50"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>2028</v>
       </c>
@@ -11771,32 +11781,32 @@
         <f>discount!C28</f>
         <v>0.02</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="47">
         <v>18500000</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="51">
         <f t="shared" si="3"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="62">
+      <c r="E15" s="48"/>
+      <c r="F15" s="56">
         <f t="shared" si="0"/>
         <v>54418877.35486351</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="56">
         <f t="shared" si="1"/>
         <v>4601825.708632865</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="56"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="J15" s="50"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="50"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>2029</v>
       </c>
@@ -11804,32 +11814,32 @@
         <f>discount!C29</f>
         <v>0.02</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="47">
         <v>18500000</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="51">
         <f t="shared" si="3"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="62">
+      <c r="E16" s="48"/>
+      <c r="F16" s="56">
         <f t="shared" si="0"/>
         <v>36637254.901960783</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="56">
         <f t="shared" si="1"/>
         <v>3098157.6558839222</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="56"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="J16" s="50"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="50"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>2030</v>
       </c>
@@ -11837,32 +11847,32 @@
         <f>discount!C30</f>
         <v>0.02</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="47">
         <v>18500000</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="51">
         <f t="shared" si="3"/>
         <v>1564416.2420800002</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="62">
+      <c r="E17" s="48"/>
+      <c r="F17" s="56">
         <f>C17+F18/(1+$B18)</f>
         <v>18500000</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="56">
         <f>D17+G18/(1+$B18)</f>
         <v>1564416.2420800002</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="56">
         <f>E17+H18/(1+$B18)</f>
         <v>0</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="56"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="J17" s="50"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="50"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>2031</v>
       </c>
@@ -11870,69 +11880,69 @@
         <f>discount!C31</f>
         <v>0.02</v>
       </c>
-      <c r="C18" s="65">
-        <v>0</v>
-      </c>
-      <c r="D18" s="64">
-        <v>0</v>
-      </c>
-      <c r="E18" s="66">
-        <v>0</v>
-      </c>
-      <c r="F18" s="62">
-        <v>0</v>
-      </c>
-      <c r="G18" s="62">
-        <v>0</v>
-      </c>
-      <c r="H18" s="56">
+      <c r="C18" s="59">
+        <v>0</v>
+      </c>
+      <c r="D18" s="58">
+        <v>0</v>
+      </c>
+      <c r="E18" s="60">
+        <v>0</v>
+      </c>
+      <c r="F18" s="56">
+        <v>0</v>
+      </c>
+      <c r="G18" s="56">
+        <v>0</v>
+      </c>
+      <c r="H18" s="50">
         <v>0</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="56"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="B19" s="58" t="s">
+      <c r="J18" s="50"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="50"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B19" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="53">
         <f>D20*D21*D24*F3</f>
         <v>33809771.958263576</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="53">
         <f>D21*D20*D24*G3</f>
         <v>3049933.6077201287</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="54">
         <f>D20*D24*D25*H3</f>
         <v>2734021264.1732774</v>
       </c>
-      <c r="F19" s="56"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="56"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="56"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="J19" s="50"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="50"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C20" s="27" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="1">
         <v>0.71908499999999997</v>
       </c>
-      <c r="F20" s="56"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="56"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="56"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="J20" s="50"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="50"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C21" s="27" t="s">
         <v>85</v>
       </c>
@@ -11941,7 +11951,7 @@
         <v>0.72600228651833609</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C22" s="27" t="s">
         <v>91</v>
       </c>
@@ -11952,16 +11962,16 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C23" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="55">
         <v>19555203026</v>
       </c>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C24" s="27" t="s">
         <v>88</v>
       </c>
@@ -11969,7 +11979,7 @@
         <v>0.2671</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C25" s="27" t="s">
         <v>89</v>
       </c>
@@ -11977,7 +11987,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C26" s="27" t="s">
         <v>92</v>
       </c>
@@ -11988,10 +11998,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>